--- a/dhe_dashboard_v2/data/Bellis.xlsx
+++ b/dhe_dashboard_v2/data/Bellis.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1406" uniqueCount="361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1407" uniqueCount="359">
   <si>
     <t>Country</t>
   </si>
@@ -686,9 +686,6 @@
     <t>No information</t>
   </si>
   <si>
-    <t>ERT Compressor</t>
-  </si>
-  <si>
     <t>C003194</t>
   </si>
   <si>
@@ -1095,9 +1092,6 @@
   </si>
   <si>
     <t>dhe</t>
-  </si>
-  <si>
-    <t>Bey+E139:J150su</t>
   </si>
   <si>
     <t>Sütun8</t>
@@ -1113,12 +1107,20 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1424,37 +1426,37 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1476,53 +1478,55 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1910,8 +1914,8 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tablo1" displayName="Tablo1" ref="B7:K169" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10" tableBorderDxfId="9">
   <autoFilter ref="B7:K169"/>
-  <sortState ref="B8:J168">
-    <sortCondition ref="D68"/>
+  <sortState ref="B8:K169">
+    <sortCondition ref="I7:I169"/>
   </sortState>
   <tableColumns count="10">
     <tableColumn id="1" name="Sütun1" dataDxfId="8"/>
@@ -2194,8 +2198,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:S170"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I176" sqref="I176"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2204,8 +2208,8 @@
     <col min="3" max="4" width="12.33203125" style="9" customWidth="1"/>
     <col min="5" max="5" width="30.109375" style="9" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="30.109375" style="9" customWidth="1"/>
-    <col min="7" max="7" width="33.5546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="33.5546875" style="9" customWidth="1"/>
+    <col min="8" max="8" width="22.44140625" customWidth="1"/>
     <col min="9" max="9" width="28.33203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="24.88671875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="37.44140625" customWidth="1"/>
@@ -2286,7 +2290,7 @@
       <c r="J5" s="10"/>
       <c r="K5" s="10"/>
       <c r="L5" s="13" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.3">
@@ -2297,16 +2301,16 @@
         <v>3</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E6" s="15" t="s">
         <v>4</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G6" s="15" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H6" s="15" t="s">
         <v>5</v>
@@ -2324,34 +2328,34 @@
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B7" s="21" t="s">
+        <v>260</v>
+      </c>
+      <c r="C7" s="22" t="s">
         <v>261</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="D7" s="22" t="s">
         <v>262</v>
       </c>
-      <c r="D7" s="22" t="s">
+      <c r="E7" s="22" t="s">
         <v>263</v>
       </c>
-      <c r="E7" s="22" t="s">
+      <c r="F7" s="22" t="s">
         <v>264</v>
       </c>
-      <c r="F7" s="22" t="s">
+      <c r="G7" s="22" t="s">
         <v>265</v>
       </c>
-      <c r="G7" s="22" t="s">
+      <c r="H7" s="23" t="s">
         <v>266</v>
       </c>
-      <c r="H7" s="23" t="s">
-        <v>267</v>
-      </c>
       <c r="I7" s="23" t="s">
+        <v>356</v>
+      </c>
+      <c r="J7" s="23" t="s">
+        <v>357</v>
+      </c>
+      <c r="K7" s="23" t="s">
         <v>358</v>
-      </c>
-      <c r="J7" s="23" t="s">
-        <v>359</v>
-      </c>
-      <c r="K7" s="23" t="s">
-        <v>360</v>
       </c>
       <c r="L7" s="20"/>
     </row>
@@ -2359,33 +2363,35 @@
       <c r="A8" s="27">
         <v>1</v>
       </c>
-      <c r="B8" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>232</v>
-      </c>
-      <c r="D8" s="35">
-        <v>1991</v>
-      </c>
-      <c r="E8" s="16" t="s">
-        <v>164</v>
-      </c>
-      <c r="F8" s="16" t="s">
-        <v>318</v>
-      </c>
-      <c r="G8" s="16"/>
+      <c r="B8" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="34">
+        <v>2021</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>346</v>
+      </c>
+      <c r="G8" s="15" t="s">
+        <v>135</v>
+      </c>
       <c r="H8" s="16" t="s">
         <v>135</v>
       </c>
       <c r="I8" s="16" t="s">
-        <v>136</v>
+        <v>216</v>
       </c>
       <c r="J8" s="16" t="s">
-        <v>136</v>
+        <v>216</v>
       </c>
       <c r="K8" s="16" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="L8" s="19"/>
     </row>
@@ -2393,33 +2399,35 @@
       <c r="A9" s="27">
         <v>2</v>
       </c>
-      <c r="B9" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>274</v>
-      </c>
-      <c r="D9" s="35">
-        <v>1991</v>
-      </c>
-      <c r="E9" s="16" t="s">
-        <v>164</v>
-      </c>
-      <c r="F9" s="16" t="s">
-        <v>318</v>
-      </c>
-      <c r="G9" s="16"/>
+      <c r="B9" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="34">
+        <v>2021</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>346</v>
+      </c>
+      <c r="G9" s="15" t="s">
+        <v>135</v>
+      </c>
       <c r="H9" s="16" t="s">
         <v>135</v>
       </c>
       <c r="I9" s="16" t="s">
-        <v>136</v>
+        <v>216</v>
       </c>
       <c r="J9" s="16" t="s">
-        <v>136</v>
+        <v>216</v>
       </c>
       <c r="K9" s="24" t="s">
-        <v>136</v>
+        <v>216</v>
       </c>
       <c r="L9" s="20"/>
     </row>
@@ -2427,35 +2435,33 @@
       <c r="A10" s="27">
         <v>3</v>
       </c>
-      <c r="B10" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>284</v>
-      </c>
-      <c r="D10" s="34">
-        <v>1995</v>
-      </c>
-      <c r="E10" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="F10" s="15" t="s">
-        <v>319</v>
-      </c>
-      <c r="G10" s="15" t="s">
-        <v>135</v>
-      </c>
+      <c r="B10" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="D10" s="35">
+        <v>2022</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>320</v>
+      </c>
+      <c r="G10" s="16"/>
       <c r="H10" s="16" t="s">
         <v>135</v>
       </c>
       <c r="I10" s="16" t="s">
-        <v>136</v>
+        <v>216</v>
       </c>
       <c r="J10" s="16" t="s">
-        <v>136</v>
+        <v>216</v>
       </c>
       <c r="K10" s="24" t="s">
-        <v>136</v>
+        <v>216</v>
       </c>
       <c r="L10" s="19"/>
     </row>
@@ -2467,29 +2473,29 @@
         <v>9</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>231</v>
+        <v>144</v>
       </c>
       <c r="D11" s="35">
-        <v>1995</v>
+        <v>2016</v>
       </c>
       <c r="E11" s="16" t="s">
-        <v>163</v>
+        <v>145</v>
       </c>
       <c r="F11" s="16" t="s">
-        <v>318</v>
+        <v>329</v>
       </c>
       <c r="G11" s="16"/>
       <c r="H11" s="16" t="s">
         <v>135</v>
       </c>
       <c r="I11" s="16" t="s">
-        <v>136</v>
+        <v>216</v>
       </c>
       <c r="J11" s="16" t="s">
-        <v>136</v>
+        <v>216</v>
       </c>
       <c r="K11" s="24" t="s">
-        <v>228</v>
+        <v>139</v>
       </c>
       <c r="L11" s="19"/>
     </row>
@@ -2498,19 +2504,19 @@
         <v>5</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>276</v>
+        <v>146</v>
       </c>
       <c r="D12" s="35">
-        <v>1996</v>
+        <v>2016</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>198</v>
+        <v>145</v>
       </c>
       <c r="F12" s="16" t="s">
-        <v>320</v>
+        <v>329</v>
       </c>
       <c r="G12" s="16"/>
       <c r="H12" s="16" t="s">
@@ -2532,32 +2538,32 @@
         <v>6</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>269</v>
+        <v>147</v>
       </c>
       <c r="D13" s="35">
-        <v>1996</v>
+        <v>2011</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>210</v>
+        <v>148</v>
       </c>
       <c r="F13" s="16" t="s">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="G13" s="16"/>
       <c r="H13" s="16" t="s">
         <v>135</v>
       </c>
       <c r="I13" s="16" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="J13" s="16" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="K13" s="24" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="L13" s="19"/>
     </row>
@@ -2565,24 +2571,22 @@
       <c r="A14" s="27">
         <v>7</v>
       </c>
-      <c r="B14" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>282</v>
-      </c>
-      <c r="D14" s="34">
-        <v>1997</v>
-      </c>
-      <c r="E14" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="F14" s="15" t="s">
-        <v>322</v>
-      </c>
-      <c r="G14" s="15" t="s">
-        <v>135</v>
-      </c>
+      <c r="B14" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="35">
+        <v>2011</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" s="16" t="s">
+        <v>331</v>
+      </c>
+      <c r="G14" s="16"/>
       <c r="H14" s="16" t="s">
         <v>135</v>
       </c>
@@ -2593,7 +2597,7 @@
         <v>136</v>
       </c>
       <c r="K14" s="24" t="s">
-        <v>227</v>
+        <v>136</v>
       </c>
       <c r="L14" s="20"/>
     </row>
@@ -2601,35 +2605,33 @@
       <c r="A15" s="27">
         <v>8</v>
       </c>
-      <c r="B15" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="C15" s="15" t="s">
-        <v>281</v>
-      </c>
-      <c r="D15" s="34">
-        <v>1997</v>
-      </c>
-      <c r="E15" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="F15" s="15" t="s">
-        <v>322</v>
-      </c>
-      <c r="G15" s="15" t="s">
-        <v>135</v>
-      </c>
+      <c r="B15" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="D15" s="35">
+        <v>2018</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="F15" s="16" t="s">
+        <v>323</v>
+      </c>
+      <c r="G15" s="16"/>
       <c r="H15" s="16" t="s">
         <v>135</v>
       </c>
       <c r="I15" s="16" t="s">
-        <v>136</v>
+        <v>216</v>
       </c>
       <c r="J15" s="16" t="s">
-        <v>136</v>
+        <v>216</v>
       </c>
       <c r="K15" s="24" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="L15" s="19"/>
     </row>
@@ -2638,34 +2640,32 @@
         <v>9</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>285</v>
+        <v>49</v>
       </c>
       <c r="D16" s="34">
-        <v>1997</v>
+        <v>2011</v>
       </c>
       <c r="E16" s="15" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F16" s="15" t="s">
-        <v>319</v>
-      </c>
-      <c r="G16" s="15" t="s">
-        <v>135</v>
-      </c>
+        <v>337</v>
+      </c>
+      <c r="G16" s="15"/>
       <c r="H16" s="16" t="s">
         <v>135</v>
       </c>
       <c r="I16" s="16" t="s">
-        <v>136</v>
+        <v>216</v>
       </c>
       <c r="J16" s="16" t="s">
-        <v>136</v>
+        <v>216</v>
       </c>
       <c r="K16" s="24" t="s">
-        <v>136</v>
+        <v>216</v>
       </c>
       <c r="L16" s="19"/>
     </row>
@@ -2673,33 +2673,33 @@
       <c r="A17" s="27">
         <v>10</v>
       </c>
-      <c r="B17" s="29" t="s">
-        <v>118</v>
-      </c>
-      <c r="C17" s="30" t="s">
-        <v>294</v>
-      </c>
-      <c r="D17" s="36">
-        <v>1997</v>
-      </c>
-      <c r="E17" s="30" t="s">
-        <v>295</v>
-      </c>
-      <c r="F17" s="42" t="s">
-        <v>318</v>
-      </c>
-      <c r="G17" s="30"/>
-      <c r="H17" s="31" t="s">
-        <v>136</v>
-      </c>
-      <c r="I17" s="31" t="s">
-        <v>136</v>
-      </c>
-      <c r="J17" s="31" t="s">
-        <v>136</v>
-      </c>
-      <c r="K17" s="32" t="s">
-        <v>136</v>
+      <c r="B17" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17" s="34">
+        <v>2011</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="F17" s="15" t="s">
+        <v>337</v>
+      </c>
+      <c r="G17" s="15"/>
+      <c r="H17" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="I17" s="16" t="s">
+        <v>216</v>
+      </c>
+      <c r="J17" s="16" t="s">
+        <v>216</v>
+      </c>
+      <c r="K17" s="24" t="s">
+        <v>216</v>
       </c>
       <c r="L17" s="20"/>
     </row>
@@ -2708,21 +2708,23 @@
         <v>11</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>283</v>
+        <v>58</v>
       </c>
       <c r="D18" s="34">
-        <v>1998</v>
+        <v>2009</v>
       </c>
       <c r="E18" s="15" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="F18" s="15" t="s">
-        <v>323</v>
-      </c>
-      <c r="G18" s="15"/>
+        <v>329</v>
+      </c>
+      <c r="G18" s="15" t="s">
+        <v>135</v>
+      </c>
       <c r="H18" s="16" t="s">
         <v>135</v>
       </c>
@@ -2733,7 +2735,7 @@
         <v>216</v>
       </c>
       <c r="K18" s="24" t="s">
-        <v>136</v>
+        <v>227</v>
       </c>
       <c r="L18" s="19"/>
     </row>
@@ -2741,33 +2743,35 @@
       <c r="A19" s="27">
         <v>12</v>
       </c>
-      <c r="B19" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="C19" s="16" t="s">
-        <v>273</v>
-      </c>
-      <c r="D19" s="35">
-        <v>2000</v>
-      </c>
-      <c r="E19" s="16" t="s">
-        <v>164</v>
-      </c>
-      <c r="F19" s="16" t="s">
-        <v>318</v>
-      </c>
-      <c r="G19" s="16"/>
+      <c r="B19" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="D19" s="34">
+        <v>2016</v>
+      </c>
+      <c r="E19" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="F19" s="15" t="s">
+        <v>329</v>
+      </c>
+      <c r="G19" s="15" t="s">
+        <v>135</v>
+      </c>
       <c r="H19" s="16" t="s">
         <v>135</v>
       </c>
       <c r="I19" s="16" t="s">
-        <v>136</v>
+        <v>216</v>
       </c>
       <c r="J19" s="16" t="s">
-        <v>136</v>
+        <v>216</v>
       </c>
       <c r="K19" s="24" t="s">
-        <v>136</v>
+        <v>227</v>
       </c>
       <c r="L19" s="20"/>
     </row>
@@ -2776,30 +2780,32 @@
         <v>13</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="C20" s="16"/>
+        <v>9</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>157</v>
+      </c>
       <c r="D20" s="35">
-        <v>2003</v>
+        <v>2006</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>253</v>
+        <v>158</v>
       </c>
       <c r="F20" s="16" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="G20" s="16"/>
       <c r="H20" s="16" t="s">
         <v>135</v>
       </c>
       <c r="I20" s="16" t="s">
-        <v>136</v>
+        <v>216</v>
       </c>
       <c r="J20" s="16" t="s">
-        <v>136</v>
+        <v>216</v>
       </c>
       <c r="K20" s="24" t="s">
-        <v>136</v>
+        <v>216</v>
       </c>
       <c r="L20" s="19"/>
     </row>
@@ -2807,35 +2813,33 @@
       <c r="A21" s="27">
         <v>14</v>
       </c>
-      <c r="B21" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="C21" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="D21" s="34">
-        <v>2005</v>
-      </c>
-      <c r="E21" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="F21" s="15" t="s">
-        <v>321</v>
-      </c>
-      <c r="G21" s="15" t="s">
-        <v>135</v>
-      </c>
+      <c r="B21" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="D21" s="35">
+        <v>2010</v>
+      </c>
+      <c r="E21" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="F21" s="16" t="s">
+        <v>317</v>
+      </c>
+      <c r="G21" s="16"/>
       <c r="H21" s="16" t="s">
         <v>135</v>
       </c>
       <c r="I21" s="16" t="s">
-        <v>136</v>
+        <v>216</v>
       </c>
       <c r="J21" s="16" t="s">
-        <v>136</v>
+        <v>216</v>
       </c>
       <c r="K21" s="24" t="s">
-        <v>136</v>
+        <v>216</v>
       </c>
       <c r="L21" s="20"/>
     </row>
@@ -2843,33 +2847,33 @@
       <c r="A22" s="27">
         <v>15</v>
       </c>
-      <c r="B22" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="C22" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="D22" s="34">
-        <v>2005</v>
-      </c>
-      <c r="E22" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="F22" s="15" t="s">
-        <v>320</v>
-      </c>
-      <c r="G22" s="15"/>
+      <c r="B22" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="D22" s="35">
+        <v>2013</v>
+      </c>
+      <c r="E22" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="F22" s="16" t="s">
+        <v>317</v>
+      </c>
+      <c r="G22" s="16"/>
       <c r="H22" s="16" t="s">
         <v>135</v>
       </c>
       <c r="I22" s="16" t="s">
-        <v>136</v>
+        <v>216</v>
       </c>
       <c r="J22" s="16" t="s">
-        <v>136</v>
+        <v>216</v>
       </c>
       <c r="K22" s="24" t="s">
-        <v>136</v>
+        <v>216</v>
       </c>
       <c r="L22" s="19"/>
     </row>
@@ -2877,33 +2881,33 @@
       <c r="A23" s="27">
         <v>16</v>
       </c>
-      <c r="B23" s="17" t="s">
-        <v>118</v>
-      </c>
-      <c r="C23" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="D23" s="34">
-        <v>2005</v>
-      </c>
-      <c r="E23" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="F23" s="15" t="s">
-        <v>323</v>
-      </c>
-      <c r="G23" s="15"/>
+      <c r="B23" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="D23" s="35">
+        <v>2015</v>
+      </c>
+      <c r="E23" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="F23" s="16" t="s">
+        <v>317</v>
+      </c>
+      <c r="G23" s="16"/>
       <c r="H23" s="16" t="s">
-        <v>217</v>
+        <v>135</v>
       </c>
       <c r="I23" s="16" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="J23" s="16" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K23" s="24" t="s">
-        <v>138</v>
+        <v>216</v>
       </c>
       <c r="L23" s="20"/>
     </row>
@@ -2912,19 +2916,19 @@
         <v>17</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>128</v>
+        <v>67</v>
       </c>
       <c r="D24" s="34">
-        <v>2005</v>
+        <v>2021</v>
       </c>
       <c r="E24" s="15" t="s">
-        <v>129</v>
+        <v>68</v>
       </c>
       <c r="F24" s="15" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="G24" s="15" t="s">
         <v>135</v>
@@ -2933,10 +2937,10 @@
         <v>135</v>
       </c>
       <c r="I24" s="16" t="s">
-        <v>136</v>
+        <v>216</v>
       </c>
       <c r="J24" s="16" t="s">
-        <v>136</v>
+        <v>216</v>
       </c>
       <c r="K24" s="24" t="s">
         <v>227</v>
@@ -2948,34 +2952,32 @@
         <v>18</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="D25" s="34">
-        <v>2006</v>
+        <v>270</v>
+      </c>
+      <c r="D25" s="34" t="s">
+        <v>300</v>
       </c>
       <c r="E25" s="15" t="s">
-        <v>21</v>
+        <v>167</v>
       </c>
       <c r="F25" s="15" t="s">
-        <v>325</v>
-      </c>
-      <c r="G25" s="15" t="s">
-        <v>135</v>
-      </c>
+        <v>333</v>
+      </c>
+      <c r="G25" s="15"/>
       <c r="H25" s="16" t="s">
         <v>135</v>
       </c>
       <c r="I25" s="16" t="s">
-        <v>136</v>
+        <v>216</v>
       </c>
       <c r="J25" s="16" t="s">
-        <v>136</v>
+        <v>216</v>
       </c>
       <c r="K25" s="24" t="s">
-        <v>136</v>
+        <v>216</v>
       </c>
       <c r="L25" s="20"/>
     </row>
@@ -2983,22 +2985,22 @@
       <c r="A26" s="27">
         <v>19</v>
       </c>
-      <c r="B26" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="C26" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="D26" s="35">
-        <v>2006</v>
-      </c>
-      <c r="E26" s="16" t="s">
-        <v>158</v>
-      </c>
-      <c r="F26" s="16" t="s">
-        <v>318</v>
-      </c>
-      <c r="G26" s="16"/>
+      <c r="B26" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>271</v>
+      </c>
+      <c r="D26" s="34" t="s">
+        <v>300</v>
+      </c>
+      <c r="E26" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="F26" s="15" t="s">
+        <v>333</v>
+      </c>
+      <c r="G26" s="15"/>
       <c r="H26" s="16" t="s">
         <v>135</v>
       </c>
@@ -3017,33 +3019,33 @@
       <c r="A27" s="27">
         <v>20</v>
       </c>
-      <c r="B27" s="18" t="s">
-        <v>118</v>
-      </c>
-      <c r="C27" s="16" t="s">
-        <v>168</v>
-      </c>
-      <c r="D27" s="35">
-        <v>2006</v>
-      </c>
-      <c r="E27" s="16" t="s">
-        <v>253</v>
-      </c>
-      <c r="F27" s="16" t="s">
-        <v>326</v>
-      </c>
-      <c r="G27" s="16"/>
+      <c r="B27" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>313</v>
+      </c>
+      <c r="D27" s="34" t="s">
+        <v>300</v>
+      </c>
+      <c r="E27" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="F27" s="15" t="s">
+        <v>333</v>
+      </c>
+      <c r="G27" s="15"/>
       <c r="H27" s="16" t="s">
-        <v>135</v>
+        <v>314</v>
       </c>
       <c r="I27" s="16" t="s">
-        <v>136</v>
+        <v>216</v>
       </c>
       <c r="J27" s="16" t="s">
-        <v>136</v>
+        <v>216</v>
       </c>
       <c r="K27" s="24" t="s">
-        <v>136</v>
+        <v>216</v>
       </c>
       <c r="L27" s="20"/>
     </row>
@@ -3051,33 +3053,33 @@
       <c r="A28" s="27">
         <v>21</v>
       </c>
-      <c r="B28" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="C28" s="16" t="s">
-        <v>173</v>
-      </c>
-      <c r="D28" s="35">
-        <v>2006</v>
-      </c>
-      <c r="E28" s="16" t="s">
-        <v>174</v>
-      </c>
-      <c r="F28" s="16" t="s">
-        <v>327</v>
-      </c>
-      <c r="G28" s="16"/>
+      <c r="B28" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" s="15" t="s">
+        <v>269</v>
+      </c>
+      <c r="D28" s="34">
+        <v>2023</v>
+      </c>
+      <c r="E28" s="15" t="s">
+        <v>232</v>
+      </c>
+      <c r="F28" s="15" t="s">
+        <v>333</v>
+      </c>
+      <c r="G28" s="15"/>
       <c r="H28" s="16" t="s">
-        <v>217</v>
+        <v>135</v>
       </c>
       <c r="I28" s="16" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="J28" s="16" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="K28" s="24" t="s">
-        <v>219</v>
+        <v>138</v>
       </c>
       <c r="L28" s="19"/>
     </row>
@@ -3085,33 +3087,33 @@
       <c r="A29" s="27">
         <v>22</v>
       </c>
-      <c r="B29" s="18" t="s">
+      <c r="B29" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="C29" s="16" t="s">
-        <v>190</v>
-      </c>
-      <c r="D29" s="35">
-        <v>2006</v>
-      </c>
-      <c r="E29" s="16" t="s">
-        <v>191</v>
-      </c>
-      <c r="F29" s="16" t="s">
-        <v>328</v>
-      </c>
-      <c r="G29" s="16"/>
+      <c r="C29" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="D29" s="34">
+        <v>2018</v>
+      </c>
+      <c r="E29" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="F29" s="15" t="s">
+        <v>335</v>
+      </c>
+      <c r="G29" s="15"/>
       <c r="H29" s="16" t="s">
         <v>135</v>
       </c>
       <c r="I29" s="16" t="s">
-        <v>136</v>
+        <v>216</v>
       </c>
       <c r="J29" s="16" t="s">
-        <v>136</v>
+        <v>216</v>
       </c>
       <c r="K29" s="24" t="s">
-        <v>136</v>
+        <v>227</v>
       </c>
       <c r="L29" s="20"/>
     </row>
@@ -3119,22 +3121,22 @@
       <c r="A30" s="27">
         <v>23</v>
       </c>
-      <c r="B30" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="C30" s="16" t="s">
-        <v>204</v>
-      </c>
-      <c r="D30" s="35">
-        <v>2006</v>
-      </c>
-      <c r="E30" s="16" t="s">
-        <v>205</v>
-      </c>
-      <c r="F30" s="16" t="s">
-        <v>328</v>
-      </c>
-      <c r="G30" s="16"/>
+      <c r="B30" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="C30" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="D30" s="34">
+        <v>2019</v>
+      </c>
+      <c r="E30" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="F30" s="15" t="s">
+        <v>335</v>
+      </c>
+      <c r="G30" s="15"/>
       <c r="H30" s="16" t="s">
         <v>135</v>
       </c>
@@ -3145,7 +3147,7 @@
         <v>216</v>
       </c>
       <c r="K30" s="24" t="s">
-        <v>216</v>
+        <v>227</v>
       </c>
       <c r="L30" s="19"/>
     </row>
@@ -3153,22 +3155,22 @@
       <c r="A31" s="27">
         <v>24</v>
       </c>
-      <c r="B31" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="C31" s="16" t="s">
-        <v>206</v>
-      </c>
-      <c r="D31" s="35">
-        <v>2006</v>
-      </c>
-      <c r="E31" s="16" t="s">
-        <v>205</v>
-      </c>
-      <c r="F31" s="16" t="s">
-        <v>328</v>
-      </c>
-      <c r="G31" s="16"/>
+      <c r="B31" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="C31" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="D31" s="34">
+        <v>2012</v>
+      </c>
+      <c r="E31" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="F31" s="15" t="s">
+        <v>340</v>
+      </c>
+      <c r="G31" s="15"/>
       <c r="H31" s="16" t="s">
         <v>135</v>
       </c>
@@ -3188,34 +3190,32 @@
         <v>25</v>
       </c>
       <c r="B32" s="17" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C32" s="15" t="s">
-        <v>27</v>
+        <v>93</v>
       </c>
       <c r="D32" s="34">
-        <v>2007</v>
+        <v>2019</v>
       </c>
       <c r="E32" s="15" t="s">
-        <v>24</v>
+        <v>94</v>
       </c>
       <c r="F32" s="15" t="s">
-        <v>318</v>
-      </c>
-      <c r="G32" s="15" t="s">
-        <v>135</v>
-      </c>
+        <v>340</v>
+      </c>
+      <c r="G32" s="15"/>
       <c r="H32" s="16" t="s">
         <v>135</v>
       </c>
       <c r="I32" s="16" t="s">
-        <v>136</v>
+        <v>216</v>
       </c>
       <c r="J32" s="16" t="s">
-        <v>136</v>
+        <v>216</v>
       </c>
       <c r="K32" s="24" t="s">
-        <v>136</v>
+        <v>216</v>
       </c>
       <c r="L32" s="20"/>
     </row>
@@ -3224,31 +3224,29 @@
         <v>26</v>
       </c>
       <c r="B33" s="17" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C33" s="15" t="s">
-        <v>33</v>
+        <v>98</v>
       </c>
       <c r="D33" s="34">
-        <v>2007</v>
+        <v>2022</v>
       </c>
       <c r="E33" s="15" t="s">
-        <v>34</v>
+        <v>97</v>
       </c>
       <c r="F33" s="15" t="s">
-        <v>328</v>
-      </c>
-      <c r="G33" s="15" t="s">
-        <v>135</v>
-      </c>
+        <v>344</v>
+      </c>
+      <c r="G33" s="15"/>
       <c r="H33" s="16" t="s">
         <v>135</v>
       </c>
       <c r="I33" s="16" t="s">
-        <v>136</v>
+        <v>216</v>
       </c>
       <c r="J33" s="16" t="s">
-        <v>136</v>
+        <v>216</v>
       </c>
       <c r="K33" s="24" t="s">
         <v>136</v>
@@ -3260,31 +3258,29 @@
         <v>27</v>
       </c>
       <c r="B34" s="17" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="C34" s="15" t="s">
-        <v>39</v>
+        <v>99</v>
       </c>
       <c r="D34" s="34">
-        <v>2007</v>
+        <v>2014</v>
       </c>
       <c r="E34" s="15" t="s">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="F34" s="15" t="s">
-        <v>330</v>
-      </c>
-      <c r="G34" s="15" t="s">
-        <v>135</v>
-      </c>
+        <v>322</v>
+      </c>
+      <c r="G34" s="15"/>
       <c r="H34" s="16" t="s">
         <v>135</v>
       </c>
       <c r="I34" s="16" t="s">
-        <v>136</v>
+        <v>216</v>
       </c>
       <c r="J34" s="16" t="s">
-        <v>136</v>
+        <v>216</v>
       </c>
       <c r="K34" s="24" t="s">
         <v>136</v>
@@ -3299,28 +3295,26 @@
         <v>12</v>
       </c>
       <c r="C35" s="15" t="s">
-        <v>41</v>
+        <v>101</v>
       </c>
       <c r="D35" s="34">
-        <v>2007</v>
+        <v>2014</v>
       </c>
       <c r="E35" s="15" t="s">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="F35" s="15" t="s">
-        <v>330</v>
-      </c>
-      <c r="G35" s="15" t="s">
-        <v>135</v>
-      </c>
+        <v>322</v>
+      </c>
+      <c r="G35" s="15"/>
       <c r="H35" s="16" t="s">
         <v>135</v>
       </c>
       <c r="I35" s="16" t="s">
-        <v>136</v>
+        <v>216</v>
       </c>
       <c r="J35" s="16" t="s">
-        <v>136</v>
+        <v>216</v>
       </c>
       <c r="K35" s="24" t="s">
         <v>136</v>
@@ -3331,35 +3325,33 @@
       <c r="A36" s="27">
         <v>29</v>
       </c>
-      <c r="B36" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="C36" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="D36" s="34">
-        <v>2007</v>
-      </c>
-      <c r="E36" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="F36" s="15" t="s">
-        <v>321</v>
-      </c>
-      <c r="G36" s="15" t="s">
-        <v>135</v>
-      </c>
+      <c r="B36" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C36" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="D36" s="35">
+        <v>2009</v>
+      </c>
+      <c r="E36" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="F36" s="16" t="s">
+        <v>334</v>
+      </c>
+      <c r="G36" s="16"/>
       <c r="H36" s="16" t="s">
         <v>135</v>
       </c>
       <c r="I36" s="16" t="s">
-        <v>136</v>
+        <v>216</v>
       </c>
       <c r="J36" s="16" t="s">
-        <v>136</v>
+        <v>216</v>
       </c>
       <c r="K36" s="24" t="s">
-        <v>136</v>
+        <v>216</v>
       </c>
       <c r="L36" s="19"/>
     </row>
@@ -3371,31 +3363,29 @@
         <v>22</v>
       </c>
       <c r="C37" s="15" t="s">
-        <v>23</v>
+        <v>116</v>
       </c>
       <c r="D37" s="34">
-        <v>2008</v>
+        <v>2010</v>
       </c>
       <c r="E37" s="15" t="s">
-        <v>24</v>
+        <v>251</v>
       </c>
       <c r="F37" s="15" t="s">
-        <v>318</v>
-      </c>
-      <c r="G37" s="15" t="s">
-        <v>135</v>
-      </c>
+        <v>330</v>
+      </c>
+      <c r="G37" s="15"/>
       <c r="H37" s="16" t="s">
-        <v>135</v>
+        <v>217</v>
       </c>
       <c r="I37" s="16" t="s">
-        <v>136</v>
+        <v>216</v>
       </c>
       <c r="J37" s="16" t="s">
-        <v>136</v>
+        <v>216</v>
       </c>
       <c r="K37" s="24" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="L37" s="20"/>
     </row>
@@ -3403,35 +3393,33 @@
       <c r="A38" s="27">
         <v>31</v>
       </c>
-      <c r="B38" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="C38" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="D38" s="34">
-        <v>2008</v>
-      </c>
-      <c r="E38" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="F38" s="15" t="s">
+      <c r="B38" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="C38" s="16" t="s">
+        <v>183</v>
+      </c>
+      <c r="D38" s="35">
+        <v>2011</v>
+      </c>
+      <c r="E38" s="16" t="s">
+        <v>184</v>
+      </c>
+      <c r="F38" s="16" t="s">
         <v>329</v>
       </c>
-      <c r="G38" s="15" t="s">
-        <v>135</v>
-      </c>
+      <c r="G38" s="16"/>
       <c r="H38" s="16" t="s">
         <v>135</v>
       </c>
       <c r="I38" s="16" t="s">
-        <v>136</v>
+        <v>216</v>
       </c>
       <c r="J38" s="16" t="s">
-        <v>136</v>
+        <v>216</v>
       </c>
       <c r="K38" s="24" t="s">
-        <v>136</v>
+        <v>216</v>
       </c>
       <c r="L38" s="20"/>
     </row>
@@ -3439,33 +3427,33 @@
       <c r="A39" s="27">
         <v>32</v>
       </c>
-      <c r="B39" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="C39" s="16" t="s">
-        <v>162</v>
-      </c>
-      <c r="D39" s="35">
-        <v>2008</v>
-      </c>
-      <c r="E39" s="16" t="s">
-        <v>163</v>
-      </c>
-      <c r="F39" s="16" t="s">
-        <v>318</v>
-      </c>
-      <c r="G39" s="16"/>
-      <c r="H39" s="16" t="s">
-        <v>135</v>
-      </c>
-      <c r="I39" s="16" t="s">
-        <v>136</v>
-      </c>
-      <c r="J39" s="16" t="s">
-        <v>136</v>
-      </c>
-      <c r="K39" s="24" t="s">
-        <v>228</v>
+      <c r="B39" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="C39" s="30" t="s">
+        <v>310</v>
+      </c>
+      <c r="D39" s="36">
+        <v>2020</v>
+      </c>
+      <c r="E39" s="30" t="s">
+        <v>311</v>
+      </c>
+      <c r="F39" s="41" t="s">
+        <v>345</v>
+      </c>
+      <c r="G39" s="30"/>
+      <c r="H39" s="31" t="s">
+        <v>135</v>
+      </c>
+      <c r="I39" s="31" t="s">
+        <v>216</v>
+      </c>
+      <c r="J39" s="31" t="s">
+        <v>216</v>
+      </c>
+      <c r="K39" s="32" t="s">
+        <v>216</v>
       </c>
       <c r="L39" s="19"/>
     </row>
@@ -3474,32 +3462,34 @@
         <v>33</v>
       </c>
       <c r="B40" s="17" t="s">
-        <v>9</v>
+        <v>73</v>
       </c>
       <c r="C40" s="15" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="D40" s="34">
-        <v>2008</v>
+        <v>2011</v>
       </c>
       <c r="E40" s="15" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="F40" s="15" t="s">
-        <v>332</v>
-      </c>
-      <c r="G40" s="15"/>
+        <v>318</v>
+      </c>
+      <c r="G40" s="15" t="s">
+        <v>135</v>
+      </c>
       <c r="H40" s="16" t="s">
         <v>135</v>
       </c>
       <c r="I40" s="16" t="s">
-        <v>136</v>
+        <v>216</v>
       </c>
       <c r="J40" s="16" t="s">
-        <v>136</v>
+        <v>216</v>
       </c>
       <c r="K40" s="24" t="s">
-        <v>136</v>
+        <v>216</v>
       </c>
       <c r="L40" s="20"/>
     </row>
@@ -3507,33 +3497,33 @@
       <c r="A41" s="27">
         <v>34</v>
       </c>
-      <c r="B41" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="C41" s="16" t="s">
-        <v>142</v>
-      </c>
-      <c r="D41" s="35">
-        <v>2008</v>
-      </c>
-      <c r="E41" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="F41" s="16" t="s">
-        <v>333</v>
-      </c>
-      <c r="G41" s="16"/>
+      <c r="B41" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C41" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="D41" s="34">
+        <v>2023</v>
+      </c>
+      <c r="E41" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="F41" s="15" t="s">
+        <v>318</v>
+      </c>
+      <c r="G41" s="15"/>
       <c r="H41" s="16" t="s">
         <v>135</v>
       </c>
       <c r="I41" s="16" t="s">
-        <v>136</v>
+        <v>216</v>
       </c>
       <c r="J41" s="16" t="s">
-        <v>136</v>
+        <v>216</v>
       </c>
       <c r="K41" s="24" t="s">
-        <v>136</v>
+        <v>216</v>
       </c>
       <c r="L41" s="19"/>
     </row>
@@ -3541,33 +3531,33 @@
       <c r="A42" s="27">
         <v>35</v>
       </c>
-      <c r="B42" s="18" t="s">
+      <c r="B42" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="C42" s="16" t="s">
-        <v>181</v>
-      </c>
-      <c r="D42" s="35">
-        <v>2008</v>
-      </c>
-      <c r="E42" s="16" t="s">
-        <v>182</v>
-      </c>
-      <c r="F42" s="16" t="s">
-        <v>331</v>
-      </c>
-      <c r="G42" s="16"/>
+      <c r="C42" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="D42" s="34">
+        <v>2009</v>
+      </c>
+      <c r="E42" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="F42" s="15" t="s">
+        <v>329</v>
+      </c>
+      <c r="G42" s="15"/>
       <c r="H42" s="16" t="s">
         <v>135</v>
       </c>
       <c r="I42" s="16" t="s">
-        <v>136</v>
+        <v>216</v>
       </c>
       <c r="J42" s="16" t="s">
-        <v>136</v>
+        <v>216</v>
       </c>
       <c r="K42" s="24" t="s">
-        <v>136</v>
+        <v>216</v>
       </c>
       <c r="L42" s="20"/>
     </row>
@@ -3575,33 +3565,33 @@
       <c r="A43" s="27">
         <v>36</v>
       </c>
-      <c r="B43" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="C43" s="16" t="s">
-        <v>193</v>
-      </c>
-      <c r="D43" s="35">
-        <v>2008</v>
-      </c>
-      <c r="E43" s="16" t="s">
-        <v>191</v>
-      </c>
-      <c r="F43" s="16" t="s">
-        <v>328</v>
-      </c>
-      <c r="G43" s="16"/>
+      <c r="B43" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C43" s="15" t="s">
+        <v>308</v>
+      </c>
+      <c r="D43" s="34">
+        <v>2024</v>
+      </c>
+      <c r="E43" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="F43" s="15" t="s">
+        <v>329</v>
+      </c>
+      <c r="G43" s="15"/>
       <c r="H43" s="16" t="s">
         <v>135</v>
       </c>
       <c r="I43" s="16" t="s">
-        <v>136</v>
+        <v>216</v>
       </c>
       <c r="J43" s="16" t="s">
-        <v>136</v>
+        <v>216</v>
       </c>
       <c r="K43" s="24" t="s">
-        <v>136</v>
+        <v>216</v>
       </c>
       <c r="L43" s="19"/>
     </row>
@@ -3610,32 +3600,32 @@
         <v>37</v>
       </c>
       <c r="B44" s="18" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>207</v>
+        <v>275</v>
       </c>
       <c r="D44" s="35">
-        <v>2008</v>
+        <v>1996</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="F44" s="16" t="s">
-        <v>334</v>
+        <v>319</v>
       </c>
       <c r="G44" s="16"/>
       <c r="H44" s="16" t="s">
         <v>135</v>
       </c>
       <c r="I44" s="16" t="s">
-        <v>216</v>
+        <v>136</v>
       </c>
       <c r="J44" s="16" t="s">
-        <v>216</v>
+        <v>136</v>
       </c>
       <c r="K44" s="24" t="s">
-        <v>216</v>
+        <v>136</v>
       </c>
       <c r="L44" s="20"/>
     </row>
@@ -3644,19 +3634,19 @@
         <v>38</v>
       </c>
       <c r="B45" s="18" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="D45" s="35">
-        <v>2008</v>
+        <v>2013</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="F45" s="16" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="G45" s="16"/>
       <c r="H45" s="16" t="s">
@@ -3669,7 +3659,7 @@
         <v>216</v>
       </c>
       <c r="K45" s="24" t="s">
-        <v>216</v>
+        <v>139</v>
       </c>
       <c r="L45" s="19"/>
     </row>
@@ -3677,33 +3667,33 @@
       <c r="A46" s="27">
         <v>39</v>
       </c>
-      <c r="B46" s="17" t="s">
+      <c r="B46" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C46" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="D46" s="34">
-        <v>2009</v>
-      </c>
-      <c r="E46" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="F46" s="15" t="s">
-        <v>319</v>
-      </c>
-      <c r="G46" s="15"/>
+      <c r="C46" s="16" t="s">
+        <v>199</v>
+      </c>
+      <c r="D46" s="35">
+        <v>2016</v>
+      </c>
+      <c r="E46" s="16" t="s">
+        <v>200</v>
+      </c>
+      <c r="F46" s="16" t="s">
+        <v>317</v>
+      </c>
+      <c r="G46" s="16"/>
       <c r="H46" s="16" t="s">
         <v>135</v>
       </c>
       <c r="I46" s="16" t="s">
-        <v>136</v>
+        <v>216</v>
       </c>
       <c r="J46" s="16" t="s">
         <v>216</v>
       </c>
       <c r="K46" s="24" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="L46" s="20"/>
     </row>
@@ -3711,24 +3701,22 @@
       <c r="A47" s="27">
         <v>40</v>
       </c>
-      <c r="B47" s="17" t="s">
+      <c r="B47" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C47" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="D47" s="34">
-        <v>2009</v>
-      </c>
-      <c r="E47" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="F47" s="15" t="s">
-        <v>330</v>
-      </c>
-      <c r="G47" s="15" t="s">
-        <v>135</v>
-      </c>
+      <c r="C47" s="16" t="s">
+        <v>202</v>
+      </c>
+      <c r="D47" s="35">
+        <v>2013</v>
+      </c>
+      <c r="E47" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="F47" s="16" t="s">
+        <v>329</v>
+      </c>
+      <c r="G47" s="16"/>
       <c r="H47" s="16" t="s">
         <v>135</v>
       </c>
@@ -3739,7 +3727,7 @@
         <v>216</v>
       </c>
       <c r="K47" s="24" t="s">
-        <v>228</v>
+        <v>139</v>
       </c>
       <c r="L47" s="19"/>
     </row>
@@ -3748,31 +3736,29 @@
         <v>41</v>
       </c>
       <c r="B48" s="17" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="C48" s="15" t="s">
-        <v>84</v>
+        <v>282</v>
       </c>
       <c r="D48" s="34">
-        <v>2009</v>
+        <v>1998</v>
       </c>
       <c r="E48" s="15" t="s">
-        <v>83</v>
+        <v>52</v>
       </c>
       <c r="F48" s="15" t="s">
-        <v>321</v>
-      </c>
-      <c r="G48" s="15" t="s">
-        <v>135</v>
-      </c>
+        <v>322</v>
+      </c>
+      <c r="G48" s="15"/>
       <c r="H48" s="16" t="s">
         <v>135</v>
       </c>
       <c r="I48" s="16" t="s">
-        <v>136</v>
+        <v>216</v>
       </c>
       <c r="J48" s="16" t="s">
-        <v>136</v>
+        <v>216</v>
       </c>
       <c r="K48" s="24" t="s">
         <v>136</v>
@@ -3783,35 +3769,33 @@
       <c r="A49" s="27">
         <v>42</v>
       </c>
-      <c r="B49" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="C49" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="D49" s="34">
-        <v>2009</v>
-      </c>
-      <c r="E49" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="F49" s="15" t="s">
-        <v>321</v>
-      </c>
-      <c r="G49" s="15" t="s">
-        <v>135</v>
-      </c>
+      <c r="B49" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C49" s="16" t="s">
+        <v>204</v>
+      </c>
+      <c r="D49" s="35">
+        <v>2006</v>
+      </c>
+      <c r="E49" s="16" t="s">
+        <v>205</v>
+      </c>
+      <c r="F49" s="16" t="s">
+        <v>327</v>
+      </c>
+      <c r="G49" s="16"/>
       <c r="H49" s="16" t="s">
         <v>135</v>
       </c>
       <c r="I49" s="16" t="s">
-        <v>136</v>
+        <v>216</v>
       </c>
       <c r="J49" s="16" t="s">
-        <v>136</v>
+        <v>216</v>
       </c>
       <c r="K49" s="24" t="s">
-        <v>136</v>
+        <v>216</v>
       </c>
       <c r="L49" s="19"/>
     </row>
@@ -3819,35 +3803,33 @@
       <c r="A50" s="27">
         <v>43</v>
       </c>
-      <c r="B50" s="17" t="s">
+      <c r="B50" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C50" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="D50" s="34">
-        <v>2009</v>
-      </c>
-      <c r="E50" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="F50" s="15" t="s">
-        <v>321</v>
-      </c>
-      <c r="G50" s="15" t="s">
-        <v>135</v>
-      </c>
+      <c r="C50" s="16" t="s">
+        <v>206</v>
+      </c>
+      <c r="D50" s="35">
+        <v>2006</v>
+      </c>
+      <c r="E50" s="16" t="s">
+        <v>205</v>
+      </c>
+      <c r="F50" s="16" t="s">
+        <v>327</v>
+      </c>
+      <c r="G50" s="16"/>
       <c r="H50" s="16" t="s">
         <v>135</v>
       </c>
       <c r="I50" s="16" t="s">
-        <v>136</v>
+        <v>216</v>
       </c>
       <c r="J50" s="16" t="s">
-        <v>136</v>
+        <v>216</v>
       </c>
       <c r="K50" s="24" t="s">
-        <v>136</v>
+        <v>216</v>
       </c>
       <c r="L50" s="20"/>
     </row>
@@ -3855,22 +3837,22 @@
       <c r="A51" s="27">
         <v>44</v>
       </c>
-      <c r="B51" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="C51" s="15" t="s">
-        <v>111</v>
-      </c>
-      <c r="D51" s="34">
-        <v>2009</v>
-      </c>
-      <c r="E51" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="F51" s="15" t="s">
-        <v>330</v>
-      </c>
-      <c r="G51" s="15"/>
+      <c r="B51" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C51" s="16" t="s">
+        <v>207</v>
+      </c>
+      <c r="D51" s="35">
+        <v>2008</v>
+      </c>
+      <c r="E51" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="F51" s="16" t="s">
+        <v>333</v>
+      </c>
+      <c r="G51" s="16"/>
       <c r="H51" s="16" t="s">
         <v>135</v>
       </c>
@@ -3889,35 +3871,33 @@
       <c r="A52" s="27">
         <v>45</v>
       </c>
-      <c r="B52" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="C52" s="15" t="s">
-        <v>189</v>
-      </c>
-      <c r="D52" s="34">
-        <v>2009</v>
-      </c>
-      <c r="E52" s="15" t="s">
-        <v>188</v>
-      </c>
-      <c r="F52" s="15" t="s">
-        <v>318</v>
-      </c>
-      <c r="G52" s="15" t="s">
-        <v>135</v>
-      </c>
+      <c r="B52" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C52" s="16" t="s">
+        <v>209</v>
+      </c>
+      <c r="D52" s="35">
+        <v>2008</v>
+      </c>
+      <c r="E52" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="F52" s="16" t="s">
+        <v>333</v>
+      </c>
+      <c r="G52" s="16"/>
       <c r="H52" s="16" t="s">
         <v>135</v>
       </c>
       <c r="I52" s="16" t="s">
-        <v>136</v>
+        <v>216</v>
       </c>
       <c r="J52" s="16" t="s">
-        <v>136</v>
+        <v>216</v>
       </c>
       <c r="K52" s="24" t="s">
-        <v>138</v>
+        <v>216</v>
       </c>
       <c r="L52" s="20"/>
     </row>
@@ -3926,32 +3906,32 @@
         <v>46</v>
       </c>
       <c r="B53" s="18" t="s">
-        <v>12</v>
+        <v>76</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>155</v>
+        <v>253</v>
       </c>
       <c r="D53" s="35">
-        <v>2009</v>
+        <v>2023</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>156</v>
+        <v>208</v>
       </c>
       <c r="F53" s="16" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="G53" s="16"/>
       <c r="H53" s="16" t="s">
-        <v>217</v>
+        <v>135</v>
       </c>
       <c r="I53" s="16" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="J53" s="16" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="K53" s="24" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="L53" s="19"/>
     </row>
@@ -3960,16 +3940,16 @@
         <v>47</v>
       </c>
       <c r="B54" s="18" t="s">
-        <v>12</v>
+        <v>76</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>175</v>
+        <v>211</v>
       </c>
       <c r="D54" s="35">
-        <v>2009</v>
+        <v>2017</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>176</v>
+        <v>212</v>
       </c>
       <c r="F54" s="16" t="s">
         <v>335</v>
@@ -3994,32 +3974,32 @@
         <v>48</v>
       </c>
       <c r="B55" s="18" t="s">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>192</v>
+        <v>215</v>
       </c>
       <c r="D55" s="35">
-        <v>2009</v>
+        <v>2015</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>191</v>
+        <v>214</v>
       </c>
       <c r="F55" s="16" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="G55" s="16"/>
       <c r="H55" s="16" t="s">
         <v>135</v>
       </c>
       <c r="I55" s="16" t="s">
-        <v>136</v>
+        <v>216</v>
       </c>
       <c r="J55" s="16" t="s">
-        <v>136</v>
+        <v>216</v>
       </c>
       <c r="K55" s="24" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="L55" s="19"/>
     </row>
@@ -4027,33 +4007,33 @@
       <c r="A56" s="27">
         <v>49</v>
       </c>
-      <c r="B56" s="33" t="s">
-        <v>73</v>
-      </c>
-      <c r="C56" s="31" t="s">
-        <v>292</v>
-      </c>
-      <c r="D56" s="37">
-        <v>2009</v>
-      </c>
-      <c r="E56" s="31" t="s">
-        <v>293</v>
-      </c>
-      <c r="F56" s="43" t="s">
-        <v>321</v>
-      </c>
-      <c r="G56" s="31"/>
-      <c r="H56" s="31" t="s">
-        <v>135</v>
-      </c>
-      <c r="I56" s="31" t="s">
-        <v>136</v>
-      </c>
-      <c r="J56" s="31" t="s">
-        <v>136</v>
-      </c>
-      <c r="K56" s="32" t="s">
-        <v>136</v>
+      <c r="B56" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C56" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="D56" s="35">
+        <v>2016</v>
+      </c>
+      <c r="E56" s="16" t="s">
+        <v>214</v>
+      </c>
+      <c r="F56" s="16" t="s">
+        <v>317</v>
+      </c>
+      <c r="G56" s="16"/>
+      <c r="H56" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="I56" s="16" t="s">
+        <v>216</v>
+      </c>
+      <c r="J56" s="16" t="s">
+        <v>216</v>
+      </c>
+      <c r="K56" s="24" t="s">
+        <v>139</v>
       </c>
       <c r="L56" s="20"/>
     </row>
@@ -4062,16 +4042,16 @@
         <v>50</v>
       </c>
       <c r="B57" s="17" t="s">
-        <v>12</v>
+        <v>73</v>
       </c>
       <c r="C57" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="D57" s="34">
-        <v>2010</v>
+        <v>278</v>
+      </c>
+      <c r="D57" s="34" t="s">
+        <v>299</v>
       </c>
       <c r="E57" s="15" t="s">
-        <v>54</v>
+        <v>131</v>
       </c>
       <c r="F57" s="15" t="s">
         <v>319</v>
@@ -4081,13 +4061,13 @@
         <v>135</v>
       </c>
       <c r="I57" s="16" t="s">
-        <v>136</v>
+        <v>216</v>
       </c>
       <c r="J57" s="16" t="s">
-        <v>136</v>
+        <v>216</v>
       </c>
       <c r="K57" s="24" t="s">
-        <v>136</v>
+        <v>216</v>
       </c>
       <c r="L57" s="19"/>
     </row>
@@ -4096,32 +4076,32 @@
         <v>51</v>
       </c>
       <c r="B58" s="17" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="C58" s="15" t="s">
-        <v>116</v>
+        <v>31</v>
       </c>
       <c r="D58" s="34">
-        <v>2010</v>
-      </c>
-      <c r="E58" s="15" t="s">
-        <v>252</v>
-      </c>
-      <c r="F58" s="15" t="s">
-        <v>331</v>
+        <v>2013</v>
+      </c>
+      <c r="E58" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="F58" s="38" t="s">
+        <v>320</v>
       </c>
       <c r="G58" s="15"/>
       <c r="H58" s="16" t="s">
-        <v>217</v>
+        <v>135</v>
       </c>
       <c r="I58" s="16" t="s">
         <v>216</v>
       </c>
       <c r="J58" s="16" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="K58" s="24" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="L58" s="20"/>
     </row>
@@ -4130,19 +4110,19 @@
         <v>52</v>
       </c>
       <c r="B59" s="17" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C59" s="15" t="s">
-        <v>123</v>
+        <v>53</v>
       </c>
       <c r="D59" s="34">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="E59" s="15" t="s">
-        <v>124</v>
+        <v>54</v>
       </c>
       <c r="F59" s="15" t="s">
-        <v>336</v>
+        <v>318</v>
       </c>
       <c r="G59" s="15"/>
       <c r="H59" s="16" t="s">
@@ -4163,33 +4143,35 @@
       <c r="A60" s="27">
         <v>53</v>
       </c>
-      <c r="B60" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="C60" s="16" t="s">
-        <v>160</v>
-      </c>
-      <c r="D60" s="35">
-        <v>2010</v>
-      </c>
-      <c r="E60" s="16" t="s">
-        <v>158</v>
-      </c>
-      <c r="F60" s="16" t="s">
+      <c r="B60" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C60" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D60" s="34">
+        <v>2013</v>
+      </c>
+      <c r="E60" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F60" s="15" t="s">
         <v>318</v>
       </c>
-      <c r="G60" s="16"/>
-      <c r="H60" s="16" t="s">
-        <v>135</v>
-      </c>
-      <c r="I60" s="16" t="s">
-        <v>216</v>
-      </c>
-      <c r="J60" s="16" t="s">
-        <v>216</v>
-      </c>
-      <c r="K60" s="24" t="s">
-        <v>216</v>
+      <c r="G60" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="H60" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="I60" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="J60" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="K60" s="40" t="s">
+        <v>136</v>
       </c>
       <c r="L60" s="20"/>
     </row>
@@ -4197,33 +4179,31 @@
       <c r="A61" s="27">
         <v>54</v>
       </c>
-      <c r="B61" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="C61" s="16" t="s">
-        <v>180</v>
-      </c>
-      <c r="D61" s="35">
-        <v>2010</v>
-      </c>
-      <c r="E61" s="39" t="s">
-        <v>179</v>
-      </c>
-      <c r="F61" s="39" t="s">
-        <v>321</v>
-      </c>
-      <c r="G61" s="16"/>
+      <c r="B61" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="C61" s="15"/>
+      <c r="D61" s="34">
+        <v>2025</v>
+      </c>
+      <c r="E61" s="15" t="s">
+        <v>350</v>
+      </c>
+      <c r="F61" s="15" t="s">
+        <v>320</v>
+      </c>
+      <c r="G61" s="15"/>
       <c r="H61" s="16" t="s">
         <v>135</v>
       </c>
       <c r="I61" s="16" t="s">
-        <v>219</v>
+        <v>136</v>
       </c>
       <c r="J61" s="16" t="s">
-        <v>219</v>
+        <v>136</v>
       </c>
       <c r="K61" s="24" t="s">
-        <v>219</v>
+        <v>136</v>
       </c>
       <c r="L61" s="19"/>
     </row>
@@ -4231,24 +4211,22 @@
       <c r="A62" s="27">
         <v>55</v>
       </c>
-      <c r="B62" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="C62" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D62" s="34">
-        <v>2011</v>
-      </c>
-      <c r="E62" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="F62" s="15" t="s">
-        <v>318</v>
-      </c>
-      <c r="G62" s="15" t="s">
-        <v>135</v>
-      </c>
+      <c r="B62" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="C62" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="D62" s="35">
+        <v>2008</v>
+      </c>
+      <c r="E62" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="F62" s="16" t="s">
+        <v>332</v>
+      </c>
+      <c r="G62" s="16"/>
       <c r="H62" s="16" t="s">
         <v>135</v>
       </c>
@@ -4267,22 +4245,22 @@
       <c r="A63" s="27">
         <v>56</v>
       </c>
-      <c r="B63" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="C63" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D63" s="34">
-        <v>2011</v>
-      </c>
-      <c r="E63" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="F63" s="15" t="s">
-        <v>318</v>
-      </c>
-      <c r="G63" s="15" t="s">
+      <c r="B63" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="C63" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="D63" s="35">
+        <v>2020</v>
+      </c>
+      <c r="E63" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="F63" s="16" t="s">
+        <v>331</v>
+      </c>
+      <c r="G63" s="16" t="s">
         <v>135</v>
       </c>
       <c r="H63" s="16" t="s">
@@ -4304,21 +4282,21 @@
         <v>57</v>
       </c>
       <c r="B64" s="17" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C64" s="15" t="s">
-        <v>30</v>
+        <v>305</v>
       </c>
       <c r="D64" s="34">
-        <v>2011</v>
-      </c>
-      <c r="E64" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="F64" s="15" t="s">
-        <v>329</v>
-      </c>
-      <c r="G64" s="15" t="s">
+        <v>2024</v>
+      </c>
+      <c r="E64" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="F64" s="16" t="s">
+        <v>349</v>
+      </c>
+      <c r="G64" s="16" t="s">
         <v>135</v>
       </c>
       <c r="H64" s="16" t="s">
@@ -4339,24 +4317,22 @@
       <c r="A65" s="27">
         <v>58</v>
       </c>
-      <c r="B65" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="C65" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="D65" s="34">
-        <v>2011</v>
-      </c>
-      <c r="E65" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="F65" s="15" t="s">
-        <v>337</v>
-      </c>
-      <c r="G65" s="15" t="s">
-        <v>135</v>
-      </c>
+      <c r="B65" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C65" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D65" s="35">
+        <v>2015</v>
+      </c>
+      <c r="E65" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="F65" s="16" t="s">
+        <v>331</v>
+      </c>
+      <c r="G65" s="16"/>
       <c r="H65" s="16" t="s">
         <v>135</v>
       </c>
@@ -4375,33 +4351,33 @@
       <c r="A66" s="27">
         <v>59</v>
       </c>
-      <c r="B66" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="C66" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="D66" s="34">
-        <v>2011</v>
+      <c r="B66" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="C66" s="16" t="s">
+        <v>288</v>
+      </c>
+      <c r="D66" s="35">
+        <v>2024</v>
       </c>
       <c r="E66" s="15" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="F66" s="15" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="G66" s="15"/>
       <c r="H66" s="16" t="s">
         <v>135</v>
       </c>
       <c r="I66" s="16" t="s">
-        <v>216</v>
+        <v>136</v>
       </c>
       <c r="J66" s="16" t="s">
-        <v>216</v>
+        <v>136</v>
       </c>
       <c r="K66" s="24" t="s">
-        <v>216</v>
+        <v>136</v>
       </c>
       <c r="L66" s="20"/>
     </row>
@@ -4410,35 +4386,37 @@
         <v>60</v>
       </c>
       <c r="B67" s="17" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="C67" s="15" t="s">
-        <v>51</v>
+        <v>257</v>
       </c>
       <c r="D67" s="34">
-        <v>2011</v>
+        <v>2024</v>
       </c>
       <c r="E67" s="15" t="s">
-        <v>50</v>
+        <v>233</v>
       </c>
       <c r="F67" s="15" t="s">
-        <v>338</v>
-      </c>
-      <c r="G67" s="15"/>
+        <v>348</v>
+      </c>
+      <c r="G67" s="15" t="s">
+        <v>135</v>
+      </c>
       <c r="H67" s="16" t="s">
         <v>135</v>
       </c>
       <c r="I67" s="16" t="s">
-        <v>216</v>
+        <v>136</v>
       </c>
       <c r="J67" s="16" t="s">
-        <v>216</v>
+        <v>136</v>
       </c>
       <c r="K67" s="24" t="s">
-        <v>216</v>
+        <v>136</v>
       </c>
       <c r="L67" s="19" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.3">
@@ -4446,23 +4424,21 @@
         <v>61</v>
       </c>
       <c r="B68" s="17" t="s">
-        <v>12</v>
+        <v>221</v>
       </c>
       <c r="C68" s="15" t="s">
-        <v>89</v>
+        <v>301</v>
       </c>
       <c r="D68" s="34">
-        <v>2011</v>
-      </c>
-      <c r="E68" s="38" t="s">
-        <v>87</v>
-      </c>
-      <c r="F68" s="38" t="s">
-        <v>321</v>
-      </c>
-      <c r="G68" s="15" t="s">
-        <v>135</v>
-      </c>
+        <v>2023</v>
+      </c>
+      <c r="E68" s="15" t="s">
+        <v>287</v>
+      </c>
+      <c r="F68" s="15" t="s">
+        <v>347</v>
+      </c>
+      <c r="G68" s="15"/>
       <c r="H68" s="16" t="s">
         <v>135</v>
       </c>
@@ -4476,7 +4452,7 @@
         <v>136</v>
       </c>
       <c r="L68" s="20" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.3">
@@ -4484,21 +4460,23 @@
         <v>62</v>
       </c>
       <c r="B69" s="17" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="C69" s="15" t="s">
-        <v>102</v>
+        <v>258</v>
       </c>
       <c r="D69" s="34">
-        <v>2011</v>
+        <v>2024</v>
       </c>
       <c r="E69" s="15" t="s">
-        <v>103</v>
+        <v>233</v>
       </c>
       <c r="F69" s="15" t="s">
-        <v>332</v>
-      </c>
-      <c r="G69" s="15"/>
+        <v>348</v>
+      </c>
+      <c r="G69" s="15" t="s">
+        <v>135</v>
+      </c>
       <c r="H69" s="16" t="s">
         <v>135</v>
       </c>
@@ -4512,7 +4490,7 @@
         <v>136</v>
       </c>
       <c r="L69" s="19" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.3">
@@ -4520,19 +4498,19 @@
         <v>63</v>
       </c>
       <c r="B70" s="17" t="s">
-        <v>73</v>
+        <v>12</v>
       </c>
       <c r="C70" s="15" t="s">
-        <v>109</v>
+        <v>298</v>
       </c>
       <c r="D70" s="34">
-        <v>2011</v>
+        <v>2025</v>
       </c>
       <c r="E70" s="15" t="s">
-        <v>110</v>
+        <v>256</v>
       </c>
       <c r="F70" s="15" t="s">
-        <v>319</v>
+        <v>329</v>
       </c>
       <c r="G70" s="15" t="s">
         <v>135</v>
@@ -4541,110 +4519,112 @@
         <v>135</v>
       </c>
       <c r="I70" s="16" t="s">
-        <v>216</v>
+        <v>136</v>
       </c>
       <c r="J70" s="16" t="s">
-        <v>216</v>
+        <v>136</v>
       </c>
       <c r="K70" s="24" t="s">
-        <v>216</v>
+        <v>136</v>
       </c>
       <c r="L70" s="20" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A71" s="27">
         <v>64</v>
       </c>
-      <c r="B71" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="C71" s="16" t="s">
-        <v>147</v>
-      </c>
-      <c r="D71" s="35">
-        <v>2011</v>
-      </c>
-      <c r="E71" s="16" t="s">
-        <v>148</v>
-      </c>
-      <c r="F71" s="16" t="s">
-        <v>332</v>
-      </c>
-      <c r="G71" s="16"/>
+      <c r="B71" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C71" s="15" t="s">
+        <v>297</v>
+      </c>
+      <c r="D71" s="34">
+        <v>2015</v>
+      </c>
+      <c r="E71" s="38" t="s">
+        <v>295</v>
+      </c>
+      <c r="F71" s="38" t="s">
+        <v>341</v>
+      </c>
+      <c r="G71" s="15"/>
       <c r="H71" s="16" t="s">
         <v>135</v>
       </c>
       <c r="I71" s="16" t="s">
-        <v>216</v>
+        <v>136</v>
       </c>
       <c r="J71" s="16" t="s">
-        <v>216</v>
+        <v>136</v>
       </c>
       <c r="K71" s="24" t="s">
-        <v>216</v>
+        <v>136</v>
       </c>
       <c r="L71" s="19" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A72" s="27">
         <v>65</v>
       </c>
-      <c r="B72" s="18" t="s">
+      <c r="B72" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="C72" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="D72" s="35">
-        <v>2011</v>
-      </c>
-      <c r="E72" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="F72" s="16" t="s">
-        <v>332</v>
-      </c>
-      <c r="G72" s="16"/>
+      <c r="C72" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D72" s="34">
+        <v>2006</v>
+      </c>
+      <c r="E72" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="F72" s="15" t="s">
+        <v>324</v>
+      </c>
+      <c r="G72" s="15" t="s">
+        <v>135</v>
+      </c>
       <c r="H72" s="16" t="s">
         <v>135</v>
       </c>
       <c r="I72" s="16" t="s">
-        <v>216</v>
+        <v>136</v>
       </c>
       <c r="J72" s="16" t="s">
-        <v>216</v>
+        <v>136</v>
       </c>
       <c r="K72" s="24" t="s">
-        <v>216</v>
+        <v>136</v>
       </c>
       <c r="L72" s="20" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A73" s="27">
         <v>66</v>
       </c>
-      <c r="B73" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="C73" s="16" t="s">
-        <v>169</v>
-      </c>
-      <c r="D73" s="35">
-        <v>2011</v>
-      </c>
-      <c r="E73" s="16" t="s">
-        <v>170</v>
-      </c>
-      <c r="F73" s="16" t="s">
-        <v>339</v>
-      </c>
-      <c r="G73" s="16" t="s">
+      <c r="B73" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C73" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D73" s="34">
+        <v>2007</v>
+      </c>
+      <c r="E73" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="F73" s="15" t="s">
+        <v>317</v>
+      </c>
+      <c r="G73" s="15" t="s">
         <v>135</v>
       </c>
       <c r="H73" s="16" t="s">
@@ -4665,33 +4645,35 @@
       <c r="A74" s="27">
         <v>67</v>
       </c>
-      <c r="B74" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="C74" s="16" t="s">
-        <v>183</v>
-      </c>
-      <c r="D74" s="35">
-        <v>2011</v>
-      </c>
-      <c r="E74" s="16" t="s">
-        <v>184</v>
-      </c>
-      <c r="F74" s="16" t="s">
-        <v>330</v>
-      </c>
-      <c r="G74" s="16"/>
+      <c r="B74" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C74" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D74" s="34">
+        <v>2008</v>
+      </c>
+      <c r="E74" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="F74" s="15" t="s">
+        <v>317</v>
+      </c>
+      <c r="G74" s="15" t="s">
+        <v>135</v>
+      </c>
       <c r="H74" s="16" t="s">
         <v>135</v>
       </c>
       <c r="I74" s="16" t="s">
-        <v>216</v>
+        <v>136</v>
       </c>
       <c r="J74" s="16" t="s">
-        <v>216</v>
+        <v>136</v>
       </c>
       <c r="K74" s="24" t="s">
-        <v>216</v>
+        <v>136</v>
       </c>
       <c r="L74" s="19"/>
     </row>
@@ -4699,22 +4681,24 @@
       <c r="A75" s="27">
         <v>68</v>
       </c>
-      <c r="B75" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="C75" s="16" t="s">
-        <v>196</v>
-      </c>
-      <c r="D75" s="35">
+      <c r="B75" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C75" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D75" s="34">
         <v>2011</v>
       </c>
-      <c r="E75" s="16" t="s">
-        <v>197</v>
-      </c>
-      <c r="F75" s="16" t="s">
-        <v>340</v>
-      </c>
-      <c r="G75" s="16"/>
+      <c r="E75" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="F75" s="15" t="s">
+        <v>317</v>
+      </c>
+      <c r="G75" s="15" t="s">
+        <v>135</v>
+      </c>
       <c r="H75" s="16" t="s">
         <v>135</v>
       </c>
@@ -4722,7 +4706,7 @@
         <v>136</v>
       </c>
       <c r="J75" s="16" t="s">
-        <v>356</v>
+        <v>136</v>
       </c>
       <c r="K75" s="24" t="s">
         <v>136</v>
@@ -4734,32 +4718,34 @@
         <v>69</v>
       </c>
       <c r="B76" s="17" t="s">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="C76" s="15" t="s">
-        <v>95</v>
+        <v>26</v>
       </c>
       <c r="D76" s="34">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="E76" s="15" t="s">
-        <v>94</v>
+        <v>24</v>
       </c>
       <c r="F76" s="15" t="s">
-        <v>341</v>
-      </c>
-      <c r="G76" s="15"/>
+        <v>317</v>
+      </c>
+      <c r="G76" s="15" t="s">
+        <v>135</v>
+      </c>
       <c r="H76" s="16" t="s">
         <v>135</v>
       </c>
       <c r="I76" s="16" t="s">
-        <v>216</v>
+        <v>136</v>
       </c>
       <c r="J76" s="16" t="s">
-        <v>216</v>
+        <v>136</v>
       </c>
       <c r="K76" s="24" t="s">
-        <v>216</v>
+        <v>136</v>
       </c>
       <c r="L76" s="19"/>
     </row>
@@ -4767,33 +4753,35 @@
       <c r="A77" s="27">
         <v>70</v>
       </c>
-      <c r="B77" s="18" t="s">
+      <c r="B77" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="C77" s="16" t="s">
-        <v>178</v>
-      </c>
-      <c r="D77" s="35">
-        <v>2012</v>
-      </c>
-      <c r="E77" s="39" t="s">
-        <v>179</v>
-      </c>
-      <c r="F77" s="39" t="s">
-        <v>321</v>
-      </c>
-      <c r="G77" s="16"/>
+      <c r="C77" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D77" s="34">
+        <v>2008</v>
+      </c>
+      <c r="E77" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="F77" s="15" t="s">
+        <v>328</v>
+      </c>
+      <c r="G77" s="15" t="s">
+        <v>135</v>
+      </c>
       <c r="H77" s="16" t="s">
         <v>135</v>
       </c>
       <c r="I77" s="16" t="s">
-        <v>219</v>
+        <v>136</v>
       </c>
       <c r="J77" s="16" t="s">
-        <v>219</v>
+        <v>136</v>
       </c>
       <c r="K77" s="24" t="s">
-        <v>219</v>
+        <v>136</v>
       </c>
       <c r="L77" s="20"/>
     </row>
@@ -4801,22 +4789,24 @@
       <c r="A78" s="27">
         <v>71</v>
       </c>
-      <c r="B78" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="C78" s="24" t="s">
-        <v>194</v>
-      </c>
-      <c r="D78" s="35">
-        <v>2012</v>
-      </c>
-      <c r="E78" s="18" t="s">
-        <v>195</v>
-      </c>
-      <c r="F78" s="18" t="s">
+      <c r="B78" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C78" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="D78" s="34">
+        <v>2011</v>
+      </c>
+      <c r="E78" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="F78" s="17" t="s">
         <v>328</v>
       </c>
-      <c r="G78" s="16"/>
+      <c r="G78" s="15" t="s">
+        <v>135</v>
+      </c>
       <c r="H78" s="16" t="s">
         <v>135</v>
       </c>
@@ -4835,32 +4825,34 @@
       <c r="A79" s="27">
         <v>72</v>
       </c>
-      <c r="B79" s="33" t="s">
-        <v>9</v>
-      </c>
-      <c r="C79" s="32" t="s">
-        <v>292</v>
-      </c>
-      <c r="D79" s="37">
-        <v>2012</v>
-      </c>
-      <c r="E79" s="41" t="s">
-        <v>293</v>
-      </c>
-      <c r="F79" s="41" t="s">
-        <v>321</v>
-      </c>
-      <c r="G79" s="31"/>
-      <c r="H79" s="31" t="s">
-        <v>135</v>
-      </c>
-      <c r="I79" s="31" t="s">
-        <v>136</v>
-      </c>
-      <c r="J79" s="31" t="s">
-        <v>136</v>
-      </c>
-      <c r="K79" s="32" t="s">
+      <c r="B79" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C79" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="D79" s="34">
+        <v>2007</v>
+      </c>
+      <c r="E79" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="F79" s="17" t="s">
+        <v>327</v>
+      </c>
+      <c r="G79" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="H79" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="I79" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="J79" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="K79" s="24" t="s">
         <v>136</v>
       </c>
       <c r="L79" s="20"/>
@@ -4870,34 +4862,34 @@
         <v>73</v>
       </c>
       <c r="B80" s="17" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="C80" s="15" t="s">
-        <v>10</v>
+        <v>281</v>
       </c>
       <c r="D80" s="34">
-        <v>2013</v>
+        <v>1997</v>
       </c>
       <c r="E80" s="15" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="F80" s="15" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="G80" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="H80" s="15" t="s">
-        <v>135</v>
-      </c>
-      <c r="I80" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="J80" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="K80" s="40" t="s">
-        <v>136</v>
+      <c r="H80" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="I80" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="J80" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="K80" s="24" t="s">
+        <v>226</v>
       </c>
       <c r="L80" s="19"/>
     </row>
@@ -4906,32 +4898,34 @@
         <v>74</v>
       </c>
       <c r="B81" s="17" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="C81" s="15" t="s">
-        <v>31</v>
+        <v>280</v>
       </c>
       <c r="D81" s="34">
-        <v>2013</v>
-      </c>
-      <c r="E81" s="38" t="s">
-        <v>32</v>
-      </c>
-      <c r="F81" s="38" t="s">
+        <v>1997</v>
+      </c>
+      <c r="E81" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="F81" s="15" t="s">
         <v>321</v>
       </c>
-      <c r="G81" s="15"/>
+      <c r="G81" s="15" t="s">
+        <v>135</v>
+      </c>
       <c r="H81" s="16" t="s">
         <v>135</v>
       </c>
       <c r="I81" s="16" t="s">
-        <v>216</v>
+        <v>136</v>
       </c>
       <c r="J81" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="K81" s="24" t="s">
         <v>226</v>
-      </c>
-      <c r="K81" s="24" t="s">
-        <v>139</v>
       </c>
       <c r="L81" s="20"/>
     </row>
@@ -4940,19 +4934,19 @@
         <v>75</v>
       </c>
       <c r="B82" s="17" t="s">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="C82" s="15" t="s">
-        <v>72</v>
+        <v>37</v>
       </c>
       <c r="D82" s="34">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="E82" s="15" t="s">
-        <v>70</v>
+        <v>38</v>
       </c>
       <c r="F82" s="15" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="G82" s="15" t="s">
         <v>135</v>
@@ -4976,21 +4970,23 @@
         <v>76</v>
       </c>
       <c r="B83" s="17" t="s">
-        <v>71</v>
+        <v>22</v>
       </c>
       <c r="C83" s="15" t="s">
-        <v>132</v>
+        <v>39</v>
       </c>
       <c r="D83" s="34">
-        <v>2013</v>
+        <v>2007</v>
       </c>
       <c r="E83" s="15" t="s">
-        <v>133</v>
+        <v>40</v>
       </c>
       <c r="F83" s="15" t="s">
-        <v>328</v>
-      </c>
-      <c r="G83" s="15"/>
+        <v>329</v>
+      </c>
+      <c r="G83" s="15" t="s">
+        <v>135</v>
+      </c>
       <c r="H83" s="16" t="s">
         <v>135</v>
       </c>
@@ -5001,7 +4997,7 @@
         <v>136</v>
       </c>
       <c r="K83" s="24" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="L83" s="19"/>
     </row>
@@ -5009,33 +5005,35 @@
       <c r="A84" s="27">
         <v>77</v>
       </c>
-      <c r="B84" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="C84" s="16" t="s">
-        <v>159</v>
-      </c>
-      <c r="D84" s="35">
-        <v>2013</v>
-      </c>
-      <c r="E84" s="16" t="s">
-        <v>158</v>
-      </c>
-      <c r="F84" s="16" t="s">
-        <v>318</v>
-      </c>
-      <c r="G84" s="16"/>
+      <c r="B84" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C84" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="D84" s="34">
+        <v>2007</v>
+      </c>
+      <c r="E84" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="F84" s="15" t="s">
+        <v>329</v>
+      </c>
+      <c r="G84" s="15" t="s">
+        <v>135</v>
+      </c>
       <c r="H84" s="16" t="s">
         <v>135</v>
       </c>
       <c r="I84" s="16" t="s">
-        <v>216</v>
+        <v>136</v>
       </c>
       <c r="J84" s="16" t="s">
-        <v>216</v>
+        <v>136</v>
       </c>
       <c r="K84" s="24" t="s">
-        <v>216</v>
+        <v>136</v>
       </c>
       <c r="L84" s="20"/>
     </row>
@@ -5043,33 +5041,35 @@
       <c r="A85" s="27">
         <v>78</v>
       </c>
-      <c r="B85" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="C85" s="16" t="s">
-        <v>201</v>
-      </c>
-      <c r="D85" s="35">
-        <v>2013</v>
-      </c>
-      <c r="E85" s="16" t="s">
-        <v>200</v>
-      </c>
-      <c r="F85" s="16" t="s">
-        <v>318</v>
-      </c>
-      <c r="G85" s="16"/>
+      <c r="B85" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C85" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D85" s="34">
+        <v>2015</v>
+      </c>
+      <c r="E85" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" s="38" t="s">
+        <v>325</v>
+      </c>
+      <c r="G85" s="15" t="s">
+        <v>135</v>
+      </c>
       <c r="H85" s="16" t="s">
         <v>135</v>
       </c>
       <c r="I85" s="16" t="s">
-        <v>216</v>
+        <v>136</v>
       </c>
       <c r="J85" s="16" t="s">
-        <v>216</v>
+        <v>136</v>
       </c>
       <c r="K85" s="24" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="L85" s="19"/>
     </row>
@@ -5077,36 +5077,36 @@
       <c r="A86" s="27">
         <v>79</v>
       </c>
-      <c r="B86" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="C86" s="16" t="s">
-        <v>202</v>
-      </c>
-      <c r="D86" s="35">
-        <v>2013</v>
-      </c>
-      <c r="E86" s="16" t="s">
-        <v>203</v>
-      </c>
-      <c r="F86" s="16" t="s">
-        <v>330</v>
-      </c>
-      <c r="G86" s="16"/>
+      <c r="B86" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="C86" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="D86" s="34">
+        <v>2019</v>
+      </c>
+      <c r="E86" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="F86" s="15" t="s">
+        <v>322</v>
+      </c>
+      <c r="G86" s="15"/>
       <c r="H86" s="16" t="s">
         <v>135</v>
       </c>
       <c r="I86" s="16" t="s">
-        <v>216</v>
+        <v>136</v>
       </c>
       <c r="J86" s="16" t="s">
-        <v>216</v>
+        <v>136</v>
       </c>
       <c r="K86" s="24" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="L86" s="20" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.3">
@@ -5114,29 +5114,29 @@
         <v>80</v>
       </c>
       <c r="B87" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="C87" s="15" t="s">
-        <v>99</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="C87" s="15"/>
       <c r="D87" s="34">
-        <v>2014</v>
+        <v>2025</v>
       </c>
       <c r="E87" s="15" t="s">
-        <v>100</v>
+        <v>47</v>
       </c>
       <c r="F87" s="15" t="s">
-        <v>323</v>
-      </c>
-      <c r="G87" s="15"/>
+        <v>322</v>
+      </c>
+      <c r="G87" s="15" t="s">
+        <v>135</v>
+      </c>
       <c r="H87" s="16" t="s">
         <v>135</v>
       </c>
       <c r="I87" s="16" t="s">
-        <v>216</v>
+        <v>136</v>
       </c>
       <c r="J87" s="16" t="s">
-        <v>216</v>
+        <v>136</v>
       </c>
       <c r="K87" s="24" t="s">
         <v>136</v>
@@ -5150,27 +5150,27 @@
       <c r="B88" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="C88" s="15" t="s">
-        <v>101</v>
-      </c>
+      <c r="C88" s="15"/>
       <c r="D88" s="34">
-        <v>2014</v>
+        <v>2025</v>
       </c>
       <c r="E88" s="15" t="s">
-        <v>100</v>
+        <v>286</v>
       </c>
       <c r="F88" s="15" t="s">
-        <v>323</v>
-      </c>
-      <c r="G88" s="15"/>
+        <v>318</v>
+      </c>
+      <c r="G88" s="15" t="s">
+        <v>135</v>
+      </c>
       <c r="H88" s="16" t="s">
         <v>135</v>
       </c>
       <c r="I88" s="16" t="s">
-        <v>216</v>
+        <v>136</v>
       </c>
       <c r="J88" s="16" t="s">
-        <v>216</v>
+        <v>136</v>
       </c>
       <c r="K88" s="24" t="s">
         <v>136</v>
@@ -5182,21 +5182,23 @@
         <v>82</v>
       </c>
       <c r="B89" s="17" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C89" s="15" t="s">
-        <v>298</v>
+        <v>283</v>
       </c>
       <c r="D89" s="34">
-        <v>2015</v>
-      </c>
-      <c r="E89" s="38" t="s">
-        <v>296</v>
-      </c>
-      <c r="F89" s="38" t="s">
-        <v>342</v>
-      </c>
-      <c r="G89" s="15"/>
+        <v>1995</v>
+      </c>
+      <c r="E89" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="F89" s="15" t="s">
+        <v>318</v>
+      </c>
+      <c r="G89" s="15" t="s">
+        <v>135</v>
+      </c>
       <c r="H89" s="16" t="s">
         <v>135</v>
       </c>
@@ -5216,19 +5218,19 @@
         <v>83</v>
       </c>
       <c r="B90" s="17" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="C90" s="15" t="s">
-        <v>43</v>
+        <v>284</v>
       </c>
       <c r="D90" s="34">
-        <v>2015</v>
-      </c>
-      <c r="E90" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="F90" s="38" t="s">
-        <v>326</v>
+        <v>1997</v>
+      </c>
+      <c r="E90" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="F90" s="15" t="s">
+        <v>318</v>
       </c>
       <c r="G90" s="15" t="s">
         <v>135</v>
@@ -5251,34 +5253,28 @@
       <c r="A91" s="27">
         <v>84</v>
       </c>
-      <c r="B91" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="C91" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="D91" s="34">
-        <v>2015</v>
-      </c>
-      <c r="E91" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="F91" s="15" t="s">
-        <v>328</v>
-      </c>
-      <c r="G91" s="15" t="s">
-        <v>135</v>
-      </c>
-      <c r="H91" s="16" t="s">
-        <v>135</v>
-      </c>
-      <c r="I91" s="16" t="s">
-        <v>136</v>
-      </c>
-      <c r="J91" s="16" t="s">
-        <v>136</v>
-      </c>
-      <c r="K91" s="24" t="s">
+      <c r="B91" s="45" t="s">
+        <v>61</v>
+      </c>
+      <c r="C91" s="43"/>
+      <c r="D91" s="46">
+        <v>2026</v>
+      </c>
+      <c r="E91" s="43" t="s">
+        <v>354</v>
+      </c>
+      <c r="F91" s="42" t="s">
+        <v>327</v>
+      </c>
+      <c r="G91" s="43"/>
+      <c r="H91" s="43"/>
+      <c r="I91" s="43" t="s">
+        <v>136</v>
+      </c>
+      <c r="J91" s="43" t="s">
+        <v>136</v>
+      </c>
+      <c r="K91" s="44" t="s">
         <v>136</v>
       </c>
       <c r="L91" s="20"/>
@@ -5288,23 +5284,21 @@
         <v>85</v>
       </c>
       <c r="B92" s="17" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C92" s="15" t="s">
-        <v>187</v>
+        <v>55</v>
       </c>
       <c r="D92" s="34">
-        <v>2015</v>
+        <v>2010</v>
       </c>
       <c r="E92" s="15" t="s">
-        <v>188</v>
+        <v>54</v>
       </c>
       <c r="F92" s="15" t="s">
         <v>318</v>
       </c>
-      <c r="G92" s="15" t="s">
-        <v>135</v>
-      </c>
+      <c r="G92" s="15"/>
       <c r="H92" s="16" t="s">
         <v>135</v>
       </c>
@@ -5315,32 +5309,34 @@
         <v>136</v>
       </c>
       <c r="K92" s="24" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="L92" s="19" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A93" s="27">
         <v>86</v>
       </c>
-      <c r="B93" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="C93" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="D93" s="35">
+      <c r="B93" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C93" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="D93" s="34">
         <v>2015</v>
       </c>
-      <c r="E93" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="F93" s="16" t="s">
-        <v>332</v>
-      </c>
-      <c r="G93" s="16"/>
+      <c r="E93" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="F93" s="15" t="s">
+        <v>327</v>
+      </c>
+      <c r="G93" s="15" t="s">
+        <v>135</v>
+      </c>
       <c r="H93" s="16" t="s">
         <v>135</v>
       </c>
@@ -5359,33 +5355,35 @@
       <c r="A94" s="27">
         <v>87</v>
       </c>
-      <c r="B94" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="C94" s="16" t="s">
-        <v>161</v>
-      </c>
-      <c r="D94" s="35">
-        <v>2015</v>
-      </c>
-      <c r="E94" s="16" t="s">
-        <v>158</v>
-      </c>
-      <c r="F94" s="16" t="s">
-        <v>318</v>
-      </c>
-      <c r="G94" s="16"/>
+      <c r="B94" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="C94" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="D94" s="34">
+        <v>2018</v>
+      </c>
+      <c r="E94" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="F94" s="15" t="s">
+        <v>317</v>
+      </c>
+      <c r="G94" s="15" t="s">
+        <v>135</v>
+      </c>
       <c r="H94" s="16" t="s">
         <v>135</v>
       </c>
       <c r="I94" s="16" t="s">
-        <v>216</v>
+        <v>136</v>
       </c>
       <c r="J94" s="16" t="s">
-        <v>216</v>
+        <v>136</v>
       </c>
       <c r="K94" s="24" t="s">
-        <v>216</v>
+        <v>136</v>
       </c>
       <c r="L94" s="20"/>
     </row>
@@ -5394,19 +5392,19 @@
         <v>88</v>
       </c>
       <c r="B95" s="18" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C95" s="16" t="s">
-        <v>165</v>
+        <v>315</v>
       </c>
       <c r="D95" s="35">
-        <v>2015</v>
+        <v>2025</v>
       </c>
       <c r="E95" s="16" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="F95" s="16" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="G95" s="16"/>
       <c r="H95" s="16" t="s">
@@ -5428,32 +5426,32 @@
         <v>89</v>
       </c>
       <c r="B96" s="18" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C96" s="16" t="s">
-        <v>215</v>
+        <v>230</v>
       </c>
       <c r="D96" s="35">
-        <v>2015</v>
+        <v>1995</v>
       </c>
       <c r="E96" s="16" t="s">
-        <v>214</v>
+        <v>163</v>
       </c>
       <c r="F96" s="16" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="G96" s="16"/>
       <c r="H96" s="16" t="s">
         <v>135</v>
       </c>
       <c r="I96" s="16" t="s">
-        <v>216</v>
+        <v>136</v>
       </c>
       <c r="J96" s="16" t="s">
-        <v>216</v>
+        <v>136</v>
       </c>
       <c r="K96" s="24" t="s">
-        <v>139</v>
+        <v>227</v>
       </c>
       <c r="L96" s="19"/>
     </row>
@@ -5461,35 +5459,33 @@
       <c r="A97" s="27">
         <v>90</v>
       </c>
-      <c r="B97" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="C97" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="D97" s="34">
-        <v>2016</v>
-      </c>
-      <c r="E97" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="F97" s="15" t="s">
-        <v>330</v>
-      </c>
-      <c r="G97" s="15" t="s">
-        <v>135</v>
-      </c>
+      <c r="B97" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C97" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="D97" s="35">
+        <v>2008</v>
+      </c>
+      <c r="E97" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="F97" s="16" t="s">
+        <v>317</v>
+      </c>
+      <c r="G97" s="16"/>
       <c r="H97" s="16" t="s">
         <v>135</v>
       </c>
       <c r="I97" s="16" t="s">
-        <v>216</v>
+        <v>136</v>
       </c>
       <c r="J97" s="16" t="s">
-        <v>216</v>
+        <v>136</v>
       </c>
       <c r="K97" s="24" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="L97" s="20"/>
     </row>
@@ -5497,24 +5493,22 @@
       <c r="A98" s="27">
         <v>91</v>
       </c>
-      <c r="B98" s="17" t="s">
+      <c r="B98" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C98" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="D98" s="34">
-        <v>2016</v>
-      </c>
-      <c r="E98" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="F98" s="15" t="s">
-        <v>330</v>
-      </c>
-      <c r="G98" s="15" t="s">
-        <v>135</v>
-      </c>
+      <c r="C98" s="16" t="s">
+        <v>231</v>
+      </c>
+      <c r="D98" s="35">
+        <v>1991</v>
+      </c>
+      <c r="E98" s="16" t="s">
+        <v>164</v>
+      </c>
+      <c r="F98" s="16" t="s">
+        <v>317</v>
+      </c>
+      <c r="G98" s="16"/>
       <c r="H98" s="16" t="s">
         <v>135</v>
       </c>
@@ -5525,7 +5519,7 @@
         <v>136</v>
       </c>
       <c r="K98" s="24" t="s">
-        <v>136</v>
+        <v>227</v>
       </c>
       <c r="L98" s="19"/>
     </row>
@@ -5533,24 +5527,22 @@
       <c r="A99" s="27">
         <v>92</v>
       </c>
-      <c r="B99" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="C99" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="D99" s="34">
-        <v>2016</v>
-      </c>
-      <c r="E99" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="F99" s="15" t="s">
-        <v>325</v>
-      </c>
-      <c r="G99" s="15" t="s">
-        <v>137</v>
-      </c>
+      <c r="B99" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C99" s="16" t="s">
+        <v>273</v>
+      </c>
+      <c r="D99" s="35">
+        <v>1991</v>
+      </c>
+      <c r="E99" s="16" t="s">
+        <v>164</v>
+      </c>
+      <c r="F99" s="16" t="s">
+        <v>317</v>
+      </c>
+      <c r="G99" s="16"/>
       <c r="H99" s="16" t="s">
         <v>135</v>
       </c>
@@ -5569,24 +5561,22 @@
       <c r="A100" s="27">
         <v>93</v>
       </c>
-      <c r="B100" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="C100" s="15" t="s">
-        <v>122</v>
-      </c>
-      <c r="D100" s="34">
-        <v>2016</v>
-      </c>
-      <c r="E100" s="15" t="s">
-        <v>230</v>
-      </c>
-      <c r="F100" s="15" t="s">
-        <v>330</v>
-      </c>
-      <c r="G100" s="15" t="s">
-        <v>135</v>
-      </c>
+      <c r="B100" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="C100" s="16" t="s">
+        <v>272</v>
+      </c>
+      <c r="D100" s="35">
+        <v>2000</v>
+      </c>
+      <c r="E100" s="16" t="s">
+        <v>164</v>
+      </c>
+      <c r="F100" s="16" t="s">
+        <v>317</v>
+      </c>
+      <c r="G100" s="16"/>
       <c r="H100" s="16" t="s">
         <v>135</v>
       </c>
@@ -5605,24 +5595,22 @@
       <c r="A101" s="27">
         <v>94</v>
       </c>
-      <c r="B101" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="C101" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="D101" s="34">
-        <v>2016</v>
-      </c>
-      <c r="E101" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="F101" s="15" t="s">
-        <v>330</v>
-      </c>
-      <c r="G101" s="15" t="s">
-        <v>135</v>
-      </c>
+      <c r="B101" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C101" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="D101" s="35">
+        <v>2015</v>
+      </c>
+      <c r="E101" s="16" t="s">
+        <v>164</v>
+      </c>
+      <c r="F101" s="16" t="s">
+        <v>317</v>
+      </c>
+      <c r="G101" s="16"/>
       <c r="H101" s="16" t="s">
         <v>135</v>
       </c>
@@ -5642,32 +5630,32 @@
         <v>95</v>
       </c>
       <c r="B102" s="18" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C102" s="16" t="s">
-        <v>144</v>
+        <v>166</v>
       </c>
       <c r="D102" s="35">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="E102" s="16" t="s">
-        <v>145</v>
+        <v>164</v>
       </c>
       <c r="F102" s="16" t="s">
-        <v>330</v>
+        <v>317</v>
       </c>
       <c r="G102" s="16"/>
       <c r="H102" s="16" t="s">
         <v>135</v>
       </c>
       <c r="I102" s="16" t="s">
-        <v>216</v>
+        <v>136</v>
       </c>
       <c r="J102" s="16" t="s">
-        <v>216</v>
+        <v>136</v>
       </c>
       <c r="K102" s="24" t="s">
-        <v>139</v>
+        <v>227</v>
       </c>
       <c r="L102" s="19"/>
     </row>
@@ -5675,33 +5663,31 @@
       <c r="A103" s="27">
         <v>96</v>
       </c>
-      <c r="B103" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="C103" s="24" t="s">
-        <v>146</v>
-      </c>
-      <c r="D103" s="35">
-        <v>2016</v>
-      </c>
-      <c r="E103" s="18" t="s">
-        <v>145</v>
-      </c>
-      <c r="F103" s="18" t="s">
-        <v>330</v>
-      </c>
-      <c r="G103" s="16"/>
+      <c r="B103" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C103" s="40"/>
+      <c r="D103" s="34">
+        <v>2025</v>
+      </c>
+      <c r="E103" s="17" t="s">
+        <v>312</v>
+      </c>
+      <c r="F103" s="17" t="s">
+        <v>351</v>
+      </c>
+      <c r="G103" s="15"/>
       <c r="H103" s="16" t="s">
         <v>135</v>
       </c>
       <c r="I103" s="16" t="s">
-        <v>216</v>
+        <v>136</v>
       </c>
       <c r="J103" s="16" t="s">
-        <v>216</v>
+        <v>136</v>
       </c>
       <c r="K103" s="24" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="L103" s="19"/>
     </row>
@@ -5710,68 +5696,72 @@
         <v>97</v>
       </c>
       <c r="B104" s="18" t="s">
-        <v>9</v>
+        <v>61</v>
       </c>
       <c r="C104" s="16" t="s">
-        <v>199</v>
+        <v>65</v>
       </c>
       <c r="D104" s="35">
-        <v>2016</v>
-      </c>
-      <c r="E104" s="16" t="s">
-        <v>200</v>
-      </c>
-      <c r="F104" s="16" t="s">
+        <v>2019</v>
+      </c>
+      <c r="E104" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="F104" s="15" t="s">
         <v>318</v>
       </c>
-      <c r="G104" s="16"/>
+      <c r="G104" s="16" t="s">
+        <v>135</v>
+      </c>
       <c r="H104" s="16" t="s">
         <v>135</v>
       </c>
       <c r="I104" s="16" t="s">
-        <v>216</v>
+        <v>136</v>
       </c>
       <c r="J104" s="16" t="s">
-        <v>216</v>
+        <v>136</v>
       </c>
       <c r="K104" s="24" t="s">
-        <v>139</v>
+        <v>227</v>
       </c>
       <c r="L104" s="20" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A105" s="27">
         <v>98</v>
       </c>
-      <c r="B105" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="C105" s="16" t="s">
-        <v>213</v>
-      </c>
-      <c r="D105" s="35">
-        <v>2016</v>
-      </c>
-      <c r="E105" s="16" t="s">
-        <v>214</v>
-      </c>
-      <c r="F105" s="16" t="s">
+      <c r="B105" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="C105" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="D105" s="34">
+        <v>2021</v>
+      </c>
+      <c r="E105" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="F105" s="15" t="s">
         <v>318</v>
       </c>
-      <c r="G105" s="16"/>
+      <c r="G105" s="15" t="s">
+        <v>135</v>
+      </c>
       <c r="H105" s="16" t="s">
         <v>135</v>
       </c>
       <c r="I105" s="16" t="s">
-        <v>216</v>
+        <v>136</v>
       </c>
       <c r="J105" s="16" t="s">
-        <v>216</v>
+        <v>136</v>
       </c>
       <c r="K105" s="24" t="s">
-        <v>139</v>
+        <v>227</v>
       </c>
       <c r="L105" s="19"/>
     </row>
@@ -5780,19 +5770,19 @@
         <v>99</v>
       </c>
       <c r="B106" s="17" t="s">
-        <v>9</v>
+        <v>71</v>
       </c>
       <c r="C106" s="15" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="D106" s="34">
-        <v>2017</v>
-      </c>
-      <c r="E106" s="38" t="s">
-        <v>83</v>
-      </c>
-      <c r="F106" s="38" t="s">
-        <v>321</v>
+        <v>2013</v>
+      </c>
+      <c r="E106" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="F106" s="15" t="s">
+        <v>329</v>
       </c>
       <c r="G106" s="15" t="s">
         <v>135</v>
@@ -5816,19 +5806,19 @@
         <v>100</v>
       </c>
       <c r="B107" s="17" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="C107" s="15" t="s">
-        <v>107</v>
+        <v>69</v>
       </c>
       <c r="D107" s="34">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="E107" s="15" t="s">
-        <v>106</v>
+        <v>70</v>
       </c>
       <c r="F107" s="15" t="s">
-        <v>343</v>
+        <v>329</v>
       </c>
       <c r="G107" s="15" t="s">
         <v>135</v>
@@ -5852,32 +5842,34 @@
         <v>101</v>
       </c>
       <c r="B108" s="18" t="s">
-        <v>76</v>
+        <v>9</v>
       </c>
       <c r="C108" s="16" t="s">
-        <v>211</v>
+        <v>169</v>
       </c>
       <c r="D108" s="35">
-        <v>2017</v>
+        <v>2011</v>
       </c>
       <c r="E108" s="16" t="s">
-        <v>212</v>
+        <v>170</v>
       </c>
       <c r="F108" s="16" t="s">
-        <v>336</v>
-      </c>
-      <c r="G108" s="16"/>
+        <v>338</v>
+      </c>
+      <c r="G108" s="16" t="s">
+        <v>135</v>
+      </c>
       <c r="H108" s="16" t="s">
         <v>135</v>
       </c>
       <c r="I108" s="16" t="s">
-        <v>216</v>
+        <v>136</v>
       </c>
       <c r="J108" s="16" t="s">
-        <v>216</v>
+        <v>136</v>
       </c>
       <c r="K108" s="24" t="s">
-        <v>216</v>
+        <v>136</v>
       </c>
       <c r="L108" s="20"/>
     </row>
@@ -5885,24 +5877,20 @@
       <c r="A109" s="27">
         <v>102</v>
       </c>
-      <c r="B109" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="C109" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="D109" s="34">
-        <v>2018</v>
-      </c>
-      <c r="E109" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="F109" s="15" t="s">
-        <v>318</v>
-      </c>
-      <c r="G109" s="15" t="s">
-        <v>135</v>
-      </c>
+      <c r="B109" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C109" s="16"/>
+      <c r="D109" s="35">
+        <v>2003</v>
+      </c>
+      <c r="E109" s="16" t="s">
+        <v>252</v>
+      </c>
+      <c r="F109" s="16" t="s">
+        <v>325</v>
+      </c>
+      <c r="G109" s="16"/>
       <c r="H109" s="16" t="s">
         <v>135</v>
       </c>
@@ -5916,7 +5904,7 @@
         <v>136</v>
       </c>
       <c r="L109" s="19" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.3">
@@ -5924,19 +5912,19 @@
         <v>103</v>
       </c>
       <c r="B110" s="18" t="s">
-        <v>18</v>
+        <v>118</v>
       </c>
       <c r="C110" s="16" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D110" s="35">
-        <v>2018</v>
+        <v>2006</v>
       </c>
       <c r="E110" s="16" t="s">
-        <v>164</v>
+        <v>252</v>
       </c>
       <c r="F110" s="16" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="G110" s="16"/>
       <c r="H110" s="16" t="s">
@@ -5949,10 +5937,10 @@
         <v>136</v>
       </c>
       <c r="K110" s="24" t="s">
-        <v>228</v>
+        <v>136</v>
       </c>
       <c r="L110" s="20" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.3">
@@ -5960,71 +5948,71 @@
         <v>104</v>
       </c>
       <c r="B111" s="17" t="s">
-        <v>73</v>
+        <v>9</v>
       </c>
       <c r="C111" s="15" t="s">
-        <v>74</v>
+        <v>104</v>
       </c>
       <c r="D111" s="34">
-        <v>2018</v>
+        <v>2008</v>
       </c>
       <c r="E111" s="15" t="s">
-        <v>75</v>
+        <v>103</v>
       </c>
       <c r="F111" s="15" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="G111" s="15"/>
       <c r="H111" s="16" t="s">
         <v>135</v>
       </c>
       <c r="I111" s="16" t="s">
-        <v>216</v>
+        <v>136</v>
       </c>
       <c r="J111" s="16" t="s">
-        <v>216</v>
+        <v>136</v>
       </c>
       <c r="K111" s="24" t="s">
-        <v>228</v>
+        <v>136</v>
       </c>
       <c r="L111" s="19" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A112" s="27">
         <v>105</v>
       </c>
-      <c r="B112" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="C112" s="16" t="s">
-        <v>152</v>
-      </c>
-      <c r="D112" s="35">
-        <v>2018</v>
-      </c>
-      <c r="E112" s="16" t="s">
-        <v>153</v>
-      </c>
-      <c r="F112" s="16" t="s">
-        <v>324</v>
-      </c>
-      <c r="G112" s="16"/>
+      <c r="B112" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="C112" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="D112" s="34">
+        <v>2011</v>
+      </c>
+      <c r="E112" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="F112" s="15" t="s">
+        <v>331</v>
+      </c>
+      <c r="G112" s="15"/>
       <c r="H112" s="16" t="s">
         <v>135</v>
       </c>
       <c r="I112" s="16" t="s">
-        <v>216</v>
+        <v>136</v>
       </c>
       <c r="J112" s="16" t="s">
-        <v>216</v>
+        <v>136</v>
       </c>
       <c r="K112" s="24" t="s">
-        <v>216</v>
+        <v>136</v>
       </c>
       <c r="L112" s="20" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.3">
@@ -6032,21 +6020,23 @@
         <v>106</v>
       </c>
       <c r="B113" s="17" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="C113" s="15" t="s">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="D113" s="34">
-        <v>2019</v>
+        <v>2016</v>
       </c>
       <c r="E113" s="15" t="s">
-        <v>47</v>
+        <v>79</v>
       </c>
       <c r="F113" s="15" t="s">
-        <v>323</v>
-      </c>
-      <c r="G113" s="15"/>
+        <v>324</v>
+      </c>
+      <c r="G113" s="15" t="s">
+        <v>137</v>
+      </c>
       <c r="H113" s="16" t="s">
         <v>135</v>
       </c>
@@ -6065,22 +6055,22 @@
       <c r="A114" s="27">
         <v>107</v>
       </c>
-      <c r="B114" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="C114" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="D114" s="35">
-        <v>2019</v>
+      <c r="B114" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C114" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="D114" s="34">
+        <v>2020</v>
       </c>
       <c r="E114" s="15" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="F114" s="15" t="s">
-        <v>319</v>
-      </c>
-      <c r="G114" s="16" t="s">
+        <v>343</v>
+      </c>
+      <c r="G114" s="15" t="s">
         <v>135</v>
       </c>
       <c r="H114" s="16" t="s">
@@ -6093,10 +6083,10 @@
         <v>136</v>
       </c>
       <c r="K114" s="24" t="s">
-        <v>228</v>
+        <v>136</v>
       </c>
       <c r="L114" s="20" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.3">
@@ -6104,35 +6094,37 @@
         <v>108</v>
       </c>
       <c r="B115" s="17" t="s">
-        <v>76</v>
+        <v>9</v>
       </c>
       <c r="C115" s="15" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="D115" s="34">
-        <v>2019</v>
+        <v>2009</v>
       </c>
       <c r="E115" s="15" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="F115" s="15" t="s">
-        <v>336</v>
-      </c>
-      <c r="G115" s="15"/>
+        <v>320</v>
+      </c>
+      <c r="G115" s="15" t="s">
+        <v>135</v>
+      </c>
       <c r="H115" s="16" t="s">
         <v>135</v>
       </c>
       <c r="I115" s="16" t="s">
-        <v>216</v>
+        <v>136</v>
       </c>
       <c r="J115" s="16" t="s">
-        <v>216</v>
+        <v>136</v>
       </c>
       <c r="K115" s="24" t="s">
-        <v>228</v>
+        <v>136</v>
       </c>
       <c r="L115" s="19" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.3">
@@ -6140,19 +6132,19 @@
         <v>109</v>
       </c>
       <c r="B116" s="17" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C116" s="15" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D116" s="34">
-        <v>2019</v>
-      </c>
-      <c r="E116" s="15" t="s">
+        <v>2017</v>
+      </c>
+      <c r="E116" s="38" t="s">
         <v>83</v>
       </c>
-      <c r="F116" s="15" t="s">
-        <v>321</v>
+      <c r="F116" s="38" t="s">
+        <v>320</v>
       </c>
       <c r="G116" s="15" t="s">
         <v>135</v>
@@ -6170,7 +6162,7 @@
         <v>136</v>
       </c>
       <c r="L116" s="20" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.3">
@@ -6181,29 +6173,31 @@
         <v>12</v>
       </c>
       <c r="C117" s="15" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="D117" s="34">
         <v>2019</v>
       </c>
       <c r="E117" s="15" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="F117" s="15" t="s">
-        <v>341</v>
-      </c>
-      <c r="G117" s="15"/>
+        <v>320</v>
+      </c>
+      <c r="G117" s="15" t="s">
+        <v>135</v>
+      </c>
       <c r="H117" s="16" t="s">
         <v>135</v>
       </c>
       <c r="I117" s="16" t="s">
-        <v>216</v>
+        <v>136</v>
       </c>
       <c r="J117" s="16" t="s">
-        <v>216</v>
+        <v>136</v>
       </c>
       <c r="K117" s="24" t="s">
-        <v>216</v>
+        <v>136</v>
       </c>
       <c r="L117" s="19"/>
     </row>
@@ -6212,19 +6206,19 @@
         <v>111</v>
       </c>
       <c r="B118" s="17" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="C118" s="15" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="D118" s="34">
-        <v>2019</v>
+        <v>2009</v>
       </c>
       <c r="E118" s="15" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="F118" s="15" t="s">
-        <v>343</v>
+        <v>320</v>
       </c>
       <c r="G118" s="15" t="s">
         <v>135</v>
@@ -6251,16 +6245,16 @@
         <v>9</v>
       </c>
       <c r="C119" s="15" t="s">
-        <v>125</v>
+        <v>88</v>
       </c>
       <c r="D119" s="34">
-        <v>2019</v>
+        <v>2009</v>
       </c>
       <c r="E119" s="15" t="s">
-        <v>126</v>
+        <v>87</v>
       </c>
       <c r="F119" s="15" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="G119" s="15" t="s">
         <v>135</v>
@@ -6283,33 +6277,35 @@
       <c r="A120" s="27">
         <v>113</v>
       </c>
-      <c r="B120" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="C120" s="16" t="s">
-        <v>185</v>
-      </c>
-      <c r="D120" s="35">
-        <v>2019</v>
-      </c>
-      <c r="E120" s="16" t="s">
-        <v>186</v>
-      </c>
-      <c r="F120" s="16" t="s">
-        <v>328</v>
-      </c>
-      <c r="G120" s="16"/>
+      <c r="B120" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C120" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="D120" s="34">
+        <v>2011</v>
+      </c>
+      <c r="E120" s="38" t="s">
+        <v>87</v>
+      </c>
+      <c r="F120" s="38" t="s">
+        <v>320</v>
+      </c>
+      <c r="G120" s="15" t="s">
+        <v>135</v>
+      </c>
       <c r="H120" s="16" t="s">
         <v>135</v>
       </c>
       <c r="I120" s="16" t="s">
-        <v>219</v>
+        <v>136</v>
       </c>
       <c r="J120" s="16" t="s">
-        <v>219</v>
+        <v>136</v>
       </c>
       <c r="K120" s="24" t="s">
-        <v>219</v>
+        <v>136</v>
       </c>
       <c r="L120" s="20"/>
     </row>
@@ -6318,19 +6314,19 @@
         <v>114</v>
       </c>
       <c r="B121" s="17" t="s">
-        <v>35</v>
+        <v>73</v>
       </c>
       <c r="C121" s="15" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="D121" s="34">
-        <v>2020</v>
+        <v>2005</v>
       </c>
       <c r="E121" s="15" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="F121" s="15" t="s">
-        <v>344</v>
+        <v>320</v>
       </c>
       <c r="G121" s="15" t="s">
         <v>135</v>
@@ -6354,21 +6350,23 @@
         <v>115</v>
       </c>
       <c r="B122" s="17" t="s">
-        <v>12</v>
+        <v>73</v>
       </c>
       <c r="C122" s="15" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D122" s="34">
-        <v>2020</v>
+        <v>2007</v>
       </c>
       <c r="E122" s="15" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="F122" s="15" t="s">
-        <v>345</v>
-      </c>
-      <c r="G122" s="15"/>
+        <v>320</v>
+      </c>
+      <c r="G122" s="15" t="s">
+        <v>135</v>
+      </c>
       <c r="H122" s="16" t="s">
         <v>135</v>
       </c>
@@ -6387,33 +6385,33 @@
       <c r="A123" s="27">
         <v>116</v>
       </c>
-      <c r="B123" s="29" t="s">
-        <v>73</v>
-      </c>
-      <c r="C123" s="30" t="s">
-        <v>311</v>
-      </c>
-      <c r="D123" s="36">
+      <c r="B123" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C123" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="D123" s="34">
         <v>2020</v>
       </c>
-      <c r="E123" s="30" t="s">
-        <v>312</v>
-      </c>
-      <c r="F123" s="42" t="s">
-        <v>346</v>
-      </c>
-      <c r="G123" s="30"/>
-      <c r="H123" s="31" t="s">
-        <v>135</v>
-      </c>
-      <c r="I123" s="31" t="s">
-        <v>216</v>
-      </c>
-      <c r="J123" s="31" t="s">
-        <v>216</v>
-      </c>
-      <c r="K123" s="32" t="s">
-        <v>216</v>
+      <c r="E123" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="F123" s="15" t="s">
+        <v>344</v>
+      </c>
+      <c r="G123" s="15"/>
+      <c r="H123" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="I123" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="J123" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="K123" s="24" t="s">
+        <v>136</v>
       </c>
       <c r="L123" s="19"/>
     </row>
@@ -6421,24 +6419,22 @@
       <c r="A124" s="27">
         <v>118</v>
       </c>
-      <c r="B124" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="C124" s="16" t="s">
-        <v>149</v>
-      </c>
-      <c r="D124" s="35">
-        <v>2020</v>
-      </c>
-      <c r="E124" s="16" t="s">
-        <v>150</v>
-      </c>
-      <c r="F124" s="16" t="s">
-        <v>332</v>
-      </c>
-      <c r="G124" s="16" t="s">
-        <v>135</v>
-      </c>
+      <c r="B124" s="17" t="s">
+        <v>221</v>
+      </c>
+      <c r="C124" s="15" t="s">
+        <v>222</v>
+      </c>
+      <c r="D124" s="34">
+        <v>2023</v>
+      </c>
+      <c r="E124" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="F124" s="15" t="s">
+        <v>339</v>
+      </c>
+      <c r="G124" s="15"/>
       <c r="H124" s="16" t="s">
         <v>135</v>
       </c>
@@ -6457,24 +6453,22 @@
       <c r="A125" s="27">
         <v>119</v>
       </c>
-      <c r="B125" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="C125" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="D125" s="34">
-        <v>2021</v>
-      </c>
-      <c r="E125" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="F125" s="15" t="s">
-        <v>347</v>
-      </c>
-      <c r="G125" s="15" t="s">
-        <v>135</v>
-      </c>
+      <c r="B125" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="C125" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="D125" s="35">
+        <v>2008</v>
+      </c>
+      <c r="E125" s="16" t="s">
+        <v>182</v>
+      </c>
+      <c r="F125" s="16" t="s">
+        <v>330</v>
+      </c>
+      <c r="G125" s="16"/>
       <c r="H125" s="16" t="s">
         <v>135</v>
       </c>
@@ -6488,69 +6482,65 @@
         <v>216</v>
       </c>
       <c r="L125" s="19" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A126" s="27">
         <v>120</v>
       </c>
-      <c r="B126" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="C126" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D126" s="34">
-        <v>2021</v>
-      </c>
-      <c r="E126" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="F126" s="15" t="s">
-        <v>347</v>
-      </c>
-      <c r="G126" s="15" t="s">
-        <v>135</v>
-      </c>
-      <c r="H126" s="16" t="s">
-        <v>135</v>
-      </c>
-      <c r="I126" s="16" t="s">
-        <v>216</v>
-      </c>
-      <c r="J126" s="16" t="s">
-        <v>216</v>
-      </c>
-      <c r="K126" s="24" t="s">
+      <c r="B126" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="C126" s="31" t="s">
+        <v>307</v>
+      </c>
+      <c r="D126" s="37">
+        <v>2025</v>
+      </c>
+      <c r="E126" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="F126" s="16" t="s">
+        <v>352</v>
+      </c>
+      <c r="G126" s="31"/>
+      <c r="H126" s="31" t="s">
+        <v>135</v>
+      </c>
+      <c r="I126" s="48" t="s">
+        <v>216</v>
+      </c>
+      <c r="J126" s="48" t="s">
+        <v>216</v>
+      </c>
+      <c r="K126" s="49" t="s">
         <v>216</v>
       </c>
       <c r="L126" s="20" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A127" s="27">
         <v>121</v>
       </c>
-      <c r="B127" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="C127" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="D127" s="34">
-        <v>2021</v>
-      </c>
-      <c r="E127" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="F127" s="15" t="s">
-        <v>319</v>
-      </c>
-      <c r="G127" s="15" t="s">
-        <v>135</v>
-      </c>
+      <c r="B127" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="C127" s="16" t="s">
+        <v>220</v>
+      </c>
+      <c r="D127" s="35">
+        <v>2005</v>
+      </c>
+      <c r="E127" s="16" t="s">
+        <v>254</v>
+      </c>
+      <c r="F127" s="16" t="s">
+        <v>335</v>
+      </c>
+      <c r="G127" s="16"/>
       <c r="H127" s="16" t="s">
         <v>135</v>
       </c>
@@ -6561,48 +6551,44 @@
         <v>136</v>
       </c>
       <c r="K127" s="24" t="s">
-        <v>228</v>
+        <v>136</v>
       </c>
       <c r="L127" s="19" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A128" s="27">
         <v>122</v>
       </c>
-      <c r="B128" s="17" t="s">
+      <c r="B128" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="C128" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="D128" s="34">
-        <v>2021</v>
-      </c>
-      <c r="E128" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="F128" s="15" t="s">
-        <v>328</v>
-      </c>
-      <c r="G128" s="15" t="s">
-        <v>135</v>
-      </c>
-      <c r="H128" s="16" t="s">
-        <v>135</v>
-      </c>
-      <c r="I128" s="16" t="s">
-        <v>216</v>
-      </c>
-      <c r="J128" s="16" t="s">
-        <v>216</v>
-      </c>
-      <c r="K128" s="24" t="s">
-        <v>228</v>
+      <c r="C128" s="30"/>
+      <c r="D128" s="36">
+        <v>2025</v>
+      </c>
+      <c r="E128" s="30" t="s">
+        <v>311</v>
+      </c>
+      <c r="F128" s="41" t="s">
+        <v>323</v>
+      </c>
+      <c r="G128" s="30"/>
+      <c r="H128" s="31" t="s">
+        <v>135</v>
+      </c>
+      <c r="I128" s="31" t="s">
+        <v>136</v>
+      </c>
+      <c r="J128" s="31" t="s">
+        <v>136</v>
+      </c>
+      <c r="K128" s="32" t="s">
+        <v>136</v>
       </c>
       <c r="L128" s="20" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.3">
@@ -6610,35 +6596,37 @@
         <v>123</v>
       </c>
       <c r="B129" s="17" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="C129" s="15" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="D129" s="34">
-        <v>2022</v>
+        <v>2017</v>
       </c>
       <c r="E129" s="15" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="F129" s="15" t="s">
-        <v>345</v>
-      </c>
-      <c r="G129" s="15"/>
+        <v>342</v>
+      </c>
+      <c r="G129" s="15" t="s">
+        <v>135</v>
+      </c>
       <c r="H129" s="16" t="s">
         <v>135</v>
       </c>
       <c r="I129" s="16" t="s">
-        <v>216</v>
+        <v>136</v>
       </c>
       <c r="J129" s="16" t="s">
-        <v>216</v>
+        <v>136</v>
       </c>
       <c r="K129" s="24" t="s">
         <v>136</v>
       </c>
       <c r="L129" s="19" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.3">
@@ -6646,19 +6634,19 @@
         <v>124</v>
       </c>
       <c r="B130" s="17" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="C130" s="15" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="D130" s="34">
-        <v>2022</v>
+        <v>2019</v>
       </c>
       <c r="E130" s="15" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="F130" s="15" t="s">
-        <v>320</v>
+        <v>342</v>
       </c>
       <c r="G130" s="15" t="s">
         <v>135</v>
@@ -6682,31 +6670,27 @@
         <v>125</v>
       </c>
       <c r="B131" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="C131" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="D131" s="34">
-        <v>2022</v>
+        <v>290</v>
+      </c>
+      <c r="C131" s="30"/>
+      <c r="D131" s="36">
+        <v>2025</v>
       </c>
       <c r="E131" s="15" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="F131" s="15" t="s">
-        <v>334</v>
-      </c>
-      <c r="G131" s="15"/>
-      <c r="H131" s="16" t="s">
-        <v>135</v>
-      </c>
-      <c r="I131" s="16" t="s">
-        <v>136</v>
-      </c>
-      <c r="J131" s="16" t="s">
-        <v>136</v>
-      </c>
-      <c r="K131" s="24" t="s">
+        <v>319</v>
+      </c>
+      <c r="G131" s="30"/>
+      <c r="H131" s="31"/>
+      <c r="I131" s="31" t="s">
+        <v>136</v>
+      </c>
+      <c r="J131" s="31" t="s">
+        <v>136</v>
+      </c>
+      <c r="K131" s="32" t="s">
         <v>136</v>
       </c>
       <c r="L131" s="20"/>
@@ -6716,21 +6700,23 @@
         <v>126</v>
       </c>
       <c r="B132" s="17" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="C132" s="15" t="s">
-        <v>130</v>
+        <v>189</v>
       </c>
       <c r="D132" s="34">
-        <v>2022</v>
+        <v>2009</v>
       </c>
       <c r="E132" s="15" t="s">
-        <v>129</v>
+        <v>188</v>
       </c>
       <c r="F132" s="15" t="s">
-        <v>324</v>
-      </c>
-      <c r="G132" s="15"/>
+        <v>317</v>
+      </c>
+      <c r="G132" s="15" t="s">
+        <v>135</v>
+      </c>
       <c r="H132" s="16" t="s">
         <v>135</v>
       </c>
@@ -6741,7 +6727,7 @@
         <v>136</v>
       </c>
       <c r="K132" s="24" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="L132" s="19"/>
     </row>
@@ -6749,30 +6735,32 @@
       <c r="A133" s="27">
         <v>127</v>
       </c>
-      <c r="B133" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="C133" s="16" t="s">
-        <v>140</v>
-      </c>
-      <c r="D133" s="35">
-        <v>2022</v>
-      </c>
-      <c r="E133" s="16" t="s">
-        <v>141</v>
-      </c>
-      <c r="F133" s="16" t="s">
-        <v>321</v>
-      </c>
-      <c r="G133" s="16"/>
+      <c r="B133" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C133" s="15" t="s">
+        <v>187</v>
+      </c>
+      <c r="D133" s="34">
+        <v>2015</v>
+      </c>
+      <c r="E133" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="F133" s="15" t="s">
+        <v>317</v>
+      </c>
+      <c r="G133" s="15" t="s">
+        <v>135</v>
+      </c>
       <c r="H133" s="16" t="s">
         <v>135</v>
       </c>
       <c r="I133" s="16" t="s">
-        <v>216</v>
+        <v>136</v>
       </c>
       <c r="J133" s="16" t="s">
-        <v>216</v>
+        <v>136</v>
       </c>
       <c r="K133" s="24" t="s">
         <v>138</v>
@@ -6783,22 +6771,22 @@
       <c r="A134" s="27">
         <v>128</v>
       </c>
-      <c r="B134" s="17" t="s">
-        <v>222</v>
-      </c>
-      <c r="C134" s="15" t="s">
-        <v>302</v>
-      </c>
-      <c r="D134" s="34">
-        <v>2023</v>
-      </c>
-      <c r="E134" s="15" t="s">
-        <v>288</v>
-      </c>
-      <c r="F134" s="15" t="s">
-        <v>348</v>
-      </c>
-      <c r="G134" s="15"/>
+      <c r="B134" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="C134" s="16" t="s">
+        <v>190</v>
+      </c>
+      <c r="D134" s="35">
+        <v>2006</v>
+      </c>
+      <c r="E134" s="16" t="s">
+        <v>191</v>
+      </c>
+      <c r="F134" s="16" t="s">
+        <v>327</v>
+      </c>
+      <c r="G134" s="16"/>
       <c r="H134" s="16" t="s">
         <v>135</v>
       </c>
@@ -6817,22 +6805,22 @@
       <c r="A135" s="27">
         <v>129</v>
       </c>
-      <c r="B135" s="17" t="s">
-        <v>222</v>
-      </c>
-      <c r="C135" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="D135" s="34">
-        <v>2023</v>
-      </c>
-      <c r="E135" s="15" t="s">
-        <v>224</v>
-      </c>
-      <c r="F135" s="15" t="s">
-        <v>340</v>
-      </c>
-      <c r="G135" s="15"/>
+      <c r="B135" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="C135" s="16" t="s">
+        <v>193</v>
+      </c>
+      <c r="D135" s="35">
+        <v>2008</v>
+      </c>
+      <c r="E135" s="16" t="s">
+        <v>191</v>
+      </c>
+      <c r="F135" s="16" t="s">
+        <v>327</v>
+      </c>
+      <c r="G135" s="16"/>
       <c r="H135" s="16" t="s">
         <v>135</v>
       </c>
@@ -6851,33 +6839,33 @@
       <c r="A136" s="27">
         <v>130</v>
       </c>
-      <c r="B136" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="C136" s="15" t="s">
-        <v>225</v>
-      </c>
-      <c r="D136" s="34">
-        <v>2023</v>
-      </c>
-      <c r="E136" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="F136" s="15" t="s">
-        <v>319</v>
-      </c>
-      <c r="G136" s="15"/>
+      <c r="B136" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="C136" s="16" t="s">
+        <v>192</v>
+      </c>
+      <c r="D136" s="35">
+        <v>2009</v>
+      </c>
+      <c r="E136" s="16" t="s">
+        <v>191</v>
+      </c>
+      <c r="F136" s="16" t="s">
+        <v>327</v>
+      </c>
+      <c r="G136" s="16"/>
       <c r="H136" s="16" t="s">
         <v>135</v>
       </c>
       <c r="I136" s="16" t="s">
-        <v>216</v>
+        <v>136</v>
       </c>
       <c r="J136" s="16" t="s">
-        <v>216</v>
+        <v>136</v>
       </c>
       <c r="K136" s="24" t="s">
-        <v>216</v>
+        <v>136</v>
       </c>
       <c r="L136" s="20"/>
     </row>
@@ -6885,33 +6873,33 @@
       <c r="A137" s="27">
         <v>131</v>
       </c>
-      <c r="B137" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="C137" s="15" t="s">
-        <v>270</v>
-      </c>
-      <c r="D137" s="34">
-        <v>2023</v>
-      </c>
-      <c r="E137" s="15" t="s">
-        <v>233</v>
-      </c>
-      <c r="F137" s="15" t="s">
-        <v>334</v>
-      </c>
-      <c r="G137" s="15"/>
+      <c r="B137" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C137" s="16" t="s">
+        <v>194</v>
+      </c>
+      <c r="D137" s="35">
+        <v>2012</v>
+      </c>
+      <c r="E137" s="16" t="s">
+        <v>195</v>
+      </c>
+      <c r="F137" s="16" t="s">
+        <v>327</v>
+      </c>
+      <c r="G137" s="16"/>
       <c r="H137" s="16" t="s">
         <v>135</v>
       </c>
       <c r="I137" s="16" t="s">
-        <v>216</v>
+        <v>136</v>
       </c>
       <c r="J137" s="16" t="s">
-        <v>216</v>
+        <v>136</v>
       </c>
       <c r="K137" s="24" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="L137" s="19"/>
     </row>
@@ -6920,35 +6908,35 @@
         <v>132</v>
       </c>
       <c r="B138" s="18" t="s">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="C138" s="16" t="s">
-        <v>254</v>
+        <v>196</v>
       </c>
       <c r="D138" s="35">
-        <v>2023</v>
+        <v>2011</v>
       </c>
       <c r="E138" s="16" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="F138" s="16" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="G138" s="16"/>
       <c r="H138" s="16" t="s">
         <v>135</v>
       </c>
       <c r="I138" s="16" t="s">
-        <v>216</v>
+        <v>136</v>
       </c>
       <c r="J138" s="16" t="s">
-        <v>216</v>
+        <v>355</v>
       </c>
       <c r="K138" s="24" t="s">
-        <v>216</v>
+        <v>136</v>
       </c>
       <c r="L138" s="20" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.3">
@@ -6956,23 +6944,21 @@
         <v>133</v>
       </c>
       <c r="B139" s="17" t="s">
-        <v>61</v>
+        <v>22</v>
       </c>
       <c r="C139" s="15" t="s">
-        <v>258</v>
+        <v>113</v>
       </c>
       <c r="D139" s="34">
-        <v>2024</v>
+        <v>2005</v>
       </c>
       <c r="E139" s="15" t="s">
-        <v>357</v>
+        <v>114</v>
       </c>
       <c r="F139" s="15" t="s">
-        <v>349</v>
-      </c>
-      <c r="G139" s="15" t="s">
-        <v>135</v>
-      </c>
+        <v>319</v>
+      </c>
+      <c r="G139" s="15"/>
       <c r="H139" s="16" t="s">
         <v>135</v>
       </c>
@@ -6986,7 +6972,7 @@
         <v>136</v>
       </c>
       <c r="L139" s="19" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.3">
@@ -6994,19 +6980,19 @@
         <v>134</v>
       </c>
       <c r="B140" s="17" t="s">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="C140" s="15" t="s">
-        <v>259</v>
+        <v>115</v>
       </c>
       <c r="D140" s="34">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="E140" s="15" t="s">
-        <v>234</v>
+        <v>114</v>
       </c>
       <c r="F140" s="15" t="s">
-        <v>349</v>
+        <v>319</v>
       </c>
       <c r="G140" s="15" t="s">
         <v>135</v>
@@ -7024,29 +7010,29 @@
         <v>136</v>
       </c>
       <c r="L140" s="20" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A141" s="27">
         <v>135</v>
       </c>
-      <c r="B141" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="C141" s="16" t="s">
-        <v>289</v>
-      </c>
-      <c r="D141" s="35">
-        <v>2024</v>
+      <c r="B141" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C141" s="15"/>
+      <c r="D141" s="34">
+        <v>2025</v>
       </c>
       <c r="E141" s="15" t="s">
-        <v>17</v>
+        <v>114</v>
       </c>
       <c r="F141" s="15" t="s">
-        <v>332</v>
-      </c>
-      <c r="G141" s="15"/>
+        <v>319</v>
+      </c>
+      <c r="G141" s="15" t="s">
+        <v>135</v>
+      </c>
       <c r="H141" s="16" t="s">
         <v>135</v>
       </c>
@@ -7066,32 +7052,32 @@
         <v>136</v>
       </c>
       <c r="B142" s="17" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="C142" s="15" t="s">
-        <v>309</v>
+        <v>120</v>
       </c>
       <c r="D142" s="34">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="E142" s="15" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="F142" s="15" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="G142" s="15"/>
       <c r="H142" s="16" t="s">
         <v>135</v>
       </c>
       <c r="I142" s="16" t="s">
-        <v>216</v>
+        <v>136</v>
       </c>
       <c r="J142" s="16" t="s">
-        <v>216</v>
+        <v>136</v>
       </c>
       <c r="K142" s="24" t="s">
-        <v>216</v>
+        <v>136</v>
       </c>
       <c r="L142" s="20"/>
     </row>
@@ -7099,34 +7085,32 @@
       <c r="A143" s="27">
         <v>137</v>
       </c>
-      <c r="B143" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="C143" s="15" t="s">
-        <v>305</v>
-      </c>
-      <c r="D143" s="34">
-        <v>2024</v>
-      </c>
-      <c r="E143" s="15" t="s">
-        <v>256</v>
-      </c>
-      <c r="F143" s="15" t="s">
-        <v>346</v>
-      </c>
-      <c r="G143" s="15" t="s">
-        <v>135</v>
-      </c>
-      <c r="H143" s="16" t="s">
-        <v>135</v>
-      </c>
-      <c r="I143" s="16" t="s">
-        <v>136</v>
-      </c>
-      <c r="J143" s="16" t="s">
-        <v>136</v>
-      </c>
-      <c r="K143" s="24" t="s">
+      <c r="B143" s="29" t="s">
+        <v>118</v>
+      </c>
+      <c r="C143" s="30" t="s">
+        <v>293</v>
+      </c>
+      <c r="D143" s="36">
+        <v>1997</v>
+      </c>
+      <c r="E143" s="30" t="s">
+        <v>294</v>
+      </c>
+      <c r="F143" s="41" t="s">
+        <v>317</v>
+      </c>
+      <c r="G143" s="30"/>
+      <c r="H143" s="31" t="s">
+        <v>136</v>
+      </c>
+      <c r="I143" s="31" t="s">
+        <v>136</v>
+      </c>
+      <c r="J143" s="31" t="s">
+        <v>136</v>
+      </c>
+      <c r="K143" s="32" t="s">
         <v>136</v>
       </c>
       <c r="L143" s="20"/>
@@ -7139,18 +7123,18 @@
         <v>12</v>
       </c>
       <c r="C144" s="15" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D144" s="34">
         <v>2024</v>
       </c>
-      <c r="E144" s="16" t="s">
-        <v>150</v>
-      </c>
-      <c r="F144" s="16" t="s">
-        <v>350</v>
-      </c>
-      <c r="G144" s="16" t="s">
+      <c r="E144" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="F144" s="15" t="s">
+        <v>345</v>
+      </c>
+      <c r="G144" s="15" t="s">
         <v>135</v>
       </c>
       <c r="H144" s="16" t="s">
@@ -7172,19 +7156,23 @@
         <v>139</v>
       </c>
       <c r="B145" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="C145" s="15"/>
+        <v>71</v>
+      </c>
+      <c r="C145" s="15" t="s">
+        <v>122</v>
+      </c>
       <c r="D145" s="34">
-        <v>2025</v>
+        <v>2016</v>
       </c>
       <c r="E145" s="15" t="s">
-        <v>351</v>
+        <v>229</v>
       </c>
       <c r="F145" s="15" t="s">
-        <v>321</v>
-      </c>
-      <c r="G145" s="15"/>
+        <v>329</v>
+      </c>
+      <c r="G145" s="15" t="s">
+        <v>135</v>
+      </c>
       <c r="H145" s="16" t="s">
         <v>135</v>
       </c>
@@ -7198,7 +7186,7 @@
         <v>136</v>
       </c>
       <c r="L145" s="20" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.3">
@@ -7209,20 +7197,18 @@
         <v>12</v>
       </c>
       <c r="C146" s="15" t="s">
-        <v>299</v>
+        <v>123</v>
       </c>
       <c r="D146" s="34">
-        <v>2025</v>
+        <v>2010</v>
       </c>
       <c r="E146" s="15" t="s">
-        <v>257</v>
+        <v>124</v>
       </c>
       <c r="F146" s="15" t="s">
-        <v>330</v>
-      </c>
-      <c r="G146" s="15" t="s">
-        <v>135</v>
-      </c>
+        <v>335</v>
+      </c>
+      <c r="G146" s="15"/>
       <c r="H146" s="16" t="s">
         <v>135</v>
       </c>
@@ -7242,17 +7228,19 @@
         <v>141</v>
       </c>
       <c r="B147" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="C147" s="15"/>
+        <v>71</v>
+      </c>
+      <c r="C147" s="15" t="s">
+        <v>127</v>
+      </c>
       <c r="D147" s="34">
-        <v>2025</v>
+        <v>2016</v>
       </c>
       <c r="E147" s="15" t="s">
-        <v>47</v>
+        <v>126</v>
       </c>
       <c r="F147" s="15" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="G147" s="15" t="s">
         <v>135</v>
@@ -7276,17 +7264,19 @@
         <v>142</v>
       </c>
       <c r="B148" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="C148" s="15"/>
+        <v>9</v>
+      </c>
+      <c r="C148" s="15" t="s">
+        <v>125</v>
+      </c>
       <c r="D148" s="34">
-        <v>2025</v>
+        <v>2019</v>
       </c>
       <c r="E148" s="15" t="s">
-        <v>287</v>
+        <v>126</v>
       </c>
       <c r="F148" s="15" t="s">
-        <v>319</v>
+        <v>329</v>
       </c>
       <c r="G148" s="15" t="s">
         <v>135</v>
@@ -7310,19 +7300,23 @@
         <v>143</v>
       </c>
       <c r="B149" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="C149" s="15"/>
+        <v>35</v>
+      </c>
+      <c r="C149" s="15" t="s">
+        <v>128</v>
+      </c>
       <c r="D149" s="34">
-        <v>2025</v>
+        <v>2005</v>
       </c>
       <c r="E149" s="15" t="s">
-        <v>313</v>
+        <v>129</v>
       </c>
       <c r="F149" s="15" t="s">
-        <v>352</v>
-      </c>
-      <c r="G149" s="15"/>
+        <v>323</v>
+      </c>
+      <c r="G149" s="15" t="s">
+        <v>135</v>
+      </c>
       <c r="H149" s="16" t="s">
         <v>135</v>
       </c>
@@ -7333,7 +7327,7 @@
         <v>136</v>
       </c>
       <c r="K149" s="24" t="s">
-        <v>136</v>
+        <v>226</v>
       </c>
       <c r="L149" s="20"/>
     </row>
@@ -7341,30 +7335,32 @@
       <c r="A150" s="27">
         <v>144</v>
       </c>
-      <c r="B150" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="C150" s="30"/>
-      <c r="D150" s="36">
-        <v>2025</v>
-      </c>
-      <c r="E150" s="30" t="s">
-        <v>312</v>
-      </c>
-      <c r="F150" s="42" t="s">
-        <v>324</v>
-      </c>
-      <c r="G150" s="30"/>
-      <c r="H150" s="31" t="s">
-        <v>135</v>
-      </c>
-      <c r="I150" s="31" t="s">
-        <v>136</v>
-      </c>
-      <c r="J150" s="31" t="s">
-        <v>136</v>
-      </c>
-      <c r="K150" s="32" t="s">
+      <c r="B150" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C150" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="D150" s="34">
+        <v>2022</v>
+      </c>
+      <c r="E150" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="F150" s="15" t="s">
+        <v>323</v>
+      </c>
+      <c r="G150" s="15"/>
+      <c r="H150" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="I150" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="J150" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="K150" s="24" t="s">
         <v>136</v>
       </c>
       <c r="L150" s="19"/>
@@ -7373,28 +7369,30 @@
       <c r="A151" s="27">
         <v>145</v>
       </c>
-      <c r="B151" s="17" t="s">
-        <v>291</v>
+      <c r="B151" s="29" t="s">
+        <v>22</v>
       </c>
       <c r="C151" s="30"/>
       <c r="D151" s="36">
         <v>2025</v>
       </c>
-      <c r="E151" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="F151" s="15" t="s">
-        <v>320</v>
+      <c r="E151" s="30" t="s">
+        <v>131</v>
+      </c>
+      <c r="F151" s="41" t="s">
+        <v>318</v>
       </c>
       <c r="G151" s="30"/>
-      <c r="H151" s="31"/>
-      <c r="I151" s="31" t="s">
-        <v>136</v>
-      </c>
-      <c r="J151" s="31" t="s">
-        <v>136</v>
-      </c>
-      <c r="K151" s="32" t="s">
+      <c r="H151" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="I151" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="J151" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="K151" s="24" t="s">
         <v>136</v>
       </c>
       <c r="L151" s="20"/>
@@ -7404,21 +7402,21 @@
         <v>146</v>
       </c>
       <c r="B152" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="C152" s="15"/>
+        <v>71</v>
+      </c>
+      <c r="C152" s="15" t="s">
+        <v>132</v>
+      </c>
       <c r="D152" s="34">
-        <v>2025</v>
+        <v>2013</v>
       </c>
       <c r="E152" s="15" t="s">
-        <v>114</v>
+        <v>133</v>
       </c>
       <c r="F152" s="15" t="s">
-        <v>320</v>
-      </c>
-      <c r="G152" s="15" t="s">
-        <v>135</v>
-      </c>
+        <v>327</v>
+      </c>
+      <c r="G152" s="15"/>
       <c r="H152" s="16" t="s">
         <v>135</v>
       </c>
@@ -7429,146 +7427,148 @@
         <v>136</v>
       </c>
       <c r="K152" s="24" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="L152" s="19" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="153" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A153" s="27">
         <v>147</v>
       </c>
-      <c r="B153" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="C153" s="15"/>
-      <c r="D153" s="34">
-        <v>2025</v>
-      </c>
-      <c r="E153" s="15" t="s">
-        <v>268</v>
-      </c>
-      <c r="F153" s="15" t="s">
-        <v>347</v>
-      </c>
-      <c r="G153" s="15"/>
-      <c r="H153" s="16" t="s">
-        <v>135</v>
-      </c>
-      <c r="I153" s="16" t="s">
-        <v>136</v>
-      </c>
-      <c r="J153" s="16" t="s">
-        <v>136</v>
-      </c>
-      <c r="K153" s="24" t="s">
+      <c r="B153" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="C153" s="31" t="s">
+        <v>291</v>
+      </c>
+      <c r="D153" s="37">
+        <v>2009</v>
+      </c>
+      <c r="E153" s="31" t="s">
+        <v>292</v>
+      </c>
+      <c r="F153" s="42" t="s">
+        <v>320</v>
+      </c>
+      <c r="G153" s="31"/>
+      <c r="H153" s="31" t="s">
+        <v>135</v>
+      </c>
+      <c r="I153" s="31" t="s">
+        <v>136</v>
+      </c>
+      <c r="J153" s="31" t="s">
+        <v>136</v>
+      </c>
+      <c r="K153" s="32" t="s">
         <v>136</v>
       </c>
       <c r="L153" s="20" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="154" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A154" s="27">
         <v>148</v>
       </c>
-      <c r="B154" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="C154" s="30"/>
-      <c r="D154" s="36">
-        <v>2025</v>
-      </c>
-      <c r="E154" s="30" t="s">
-        <v>131</v>
-      </c>
-      <c r="F154" s="42" t="s">
-        <v>319</v>
-      </c>
-      <c r="G154" s="30"/>
-      <c r="H154" s="16" t="s">
-        <v>135</v>
-      </c>
-      <c r="I154" s="16" t="s">
-        <v>136</v>
-      </c>
-      <c r="J154" s="16" t="s">
-        <v>136</v>
-      </c>
-      <c r="K154" s="24" t="s">
+      <c r="B154" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="C154" s="31" t="s">
+        <v>291</v>
+      </c>
+      <c r="D154" s="37">
+        <v>2012</v>
+      </c>
+      <c r="E154" s="47" t="s">
+        <v>292</v>
+      </c>
+      <c r="F154" s="47" t="s">
+        <v>320</v>
+      </c>
+      <c r="G154" s="31"/>
+      <c r="H154" s="31" t="s">
+        <v>135</v>
+      </c>
+      <c r="I154" s="31" t="s">
+        <v>136</v>
+      </c>
+      <c r="J154" s="31" t="s">
+        <v>136</v>
+      </c>
+      <c r="K154" s="32" t="s">
         <v>136</v>
       </c>
       <c r="L154" s="19" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="155" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A155" s="27">
         <v>149</v>
       </c>
-      <c r="B155" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="C155" s="16" t="s">
-        <v>316</v>
-      </c>
-      <c r="D155" s="35">
+      <c r="B155" s="33" t="s">
+        <v>221</v>
+      </c>
+      <c r="C155" s="31"/>
+      <c r="D155" s="37">
         <v>2025</v>
       </c>
-      <c r="E155" s="16" t="s">
-        <v>158</v>
-      </c>
-      <c r="F155" s="16" t="s">
-        <v>318</v>
-      </c>
-      <c r="G155" s="16"/>
-      <c r="H155" s="16" t="s">
-        <v>135</v>
-      </c>
-      <c r="I155" s="16" t="s">
-        <v>136</v>
-      </c>
-      <c r="J155" s="16" t="s">
-        <v>136</v>
-      </c>
-      <c r="K155" s="24" t="s">
+      <c r="E155" s="31" t="s">
+        <v>309</v>
+      </c>
+      <c r="F155" s="42" t="s">
+        <v>345</v>
+      </c>
+      <c r="G155" s="31" t="s">
+        <v>135</v>
+      </c>
+      <c r="H155" s="31" t="s">
+        <v>135</v>
+      </c>
+      <c r="I155" s="31" t="s">
+        <v>136</v>
+      </c>
+      <c r="J155" s="31" t="s">
+        <v>136</v>
+      </c>
+      <c r="K155" s="32" t="s">
         <v>136</v>
       </c>
       <c r="L155" s="20" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="156" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A156" s="27">
         <v>150</v>
       </c>
-      <c r="B156" s="33" t="s">
-        <v>73</v>
-      </c>
-      <c r="C156" s="31" t="s">
-        <v>308</v>
-      </c>
-      <c r="D156" s="37">
+      <c r="B156" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C156" s="15"/>
+      <c r="D156" s="34">
         <v>2025</v>
       </c>
-      <c r="E156" s="16" t="s">
-        <v>290</v>
-      </c>
-      <c r="F156" s="16" t="s">
-        <v>353</v>
-      </c>
-      <c r="G156" s="31"/>
-      <c r="H156" s="31" t="s">
-        <v>135</v>
-      </c>
-      <c r="I156" s="31" t="s">
-        <v>136</v>
-      </c>
-      <c r="J156" s="31" t="s">
-        <v>136</v>
-      </c>
-      <c r="K156" s="32" t="s">
+      <c r="E156" s="15" t="s">
+        <v>267</v>
+      </c>
+      <c r="F156" s="15" t="s">
+        <v>346</v>
+      </c>
+      <c r="G156" s="15"/>
+      <c r="H156" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="I156" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="J156" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="K156" s="24" t="s">
         <v>136</v>
       </c>
       <c r="L156" s="19"/>
@@ -7577,33 +7577,31 @@
       <c r="A157" s="27">
         <v>151</v>
       </c>
-      <c r="B157" s="33" t="s">
-        <v>222</v>
-      </c>
-      <c r="C157" s="31"/>
-      <c r="D157" s="37">
-        <v>2025</v>
-      </c>
-      <c r="E157" s="31" t="s">
-        <v>310</v>
-      </c>
-      <c r="F157" s="43" t="s">
-        <v>346</v>
-      </c>
-      <c r="G157" s="31" t="s">
-        <v>135</v>
-      </c>
-      <c r="H157" s="31" t="s">
-        <v>135</v>
-      </c>
-      <c r="I157" s="31" t="s">
-        <v>136</v>
-      </c>
-      <c r="J157" s="31" t="s">
-        <v>136</v>
-      </c>
-      <c r="K157" s="32" t="s">
-        <v>136</v>
+      <c r="B157" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="C157" s="15" t="s">
+        <v>279</v>
+      </c>
+      <c r="D157" s="34" t="s">
+        <v>302</v>
+      </c>
+      <c r="E157" s="15" t="s">
+        <v>353</v>
+      </c>
+      <c r="F157" s="15" t="s">
+        <v>335</v>
+      </c>
+      <c r="G157" s="15"/>
+      <c r="H157" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="I157" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="J157" s="16"/>
+      <c r="K157" s="24" t="s">
+        <v>138</v>
       </c>
       <c r="L157" s="20"/>
     </row>
@@ -7611,29 +7609,33 @@
       <c r="A158" s="27">
         <v>152</v>
       </c>
-      <c r="B158" s="46" t="s">
-        <v>61</v>
-      </c>
-      <c r="C158" s="45"/>
-      <c r="D158" s="47">
-        <v>2026</v>
-      </c>
-      <c r="E158" s="46" t="s">
-        <v>355</v>
-      </c>
-      <c r="F158" s="43" t="s">
-        <v>328</v>
-      </c>
-      <c r="G158" s="44"/>
-      <c r="H158" s="44"/>
-      <c r="I158" s="44" t="s">
-        <v>136</v>
-      </c>
-      <c r="J158" s="44" t="s">
-        <v>136</v>
-      </c>
-      <c r="K158" s="45" t="s">
-        <v>136</v>
+      <c r="B158" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="C158" s="24" t="s">
+        <v>274</v>
+      </c>
+      <c r="D158" s="35" t="s">
+        <v>306</v>
+      </c>
+      <c r="E158" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="F158" s="16" t="s">
+        <v>319</v>
+      </c>
+      <c r="G158" s="16"/>
+      <c r="H158" s="16" t="s">
+        <v>217</v>
+      </c>
+      <c r="I158" s="16" t="s">
+        <v>219</v>
+      </c>
+      <c r="J158" s="16" t="s">
+        <v>219</v>
+      </c>
+      <c r="K158" s="16" t="s">
+        <v>219</v>
       </c>
       <c r="L158" s="20"/>
     </row>
@@ -7642,23 +7644,23 @@
         <v>153</v>
       </c>
       <c r="B159" s="18" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="C159" s="16" t="s">
-        <v>171</v>
+        <v>277</v>
       </c>
       <c r="D159" s="35" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="E159" s="16" t="s">
-        <v>172</v>
+        <v>154</v>
       </c>
       <c r="F159" s="16" t="s">
-        <v>320</v>
+        <v>334</v>
       </c>
       <c r="G159" s="16"/>
       <c r="H159" s="16" t="s">
-        <v>217</v>
+        <v>135</v>
       </c>
       <c r="I159" s="16" t="s">
         <v>219</v>
@@ -7676,32 +7678,32 @@
         <v>154</v>
       </c>
       <c r="B160" s="18" t="s">
-        <v>118</v>
+        <v>12</v>
       </c>
       <c r="C160" s="16" t="s">
-        <v>275</v>
-      </c>
-      <c r="D160" s="35" t="s">
-        <v>307</v>
+        <v>155</v>
+      </c>
+      <c r="D160" s="35">
+        <v>2009</v>
       </c>
       <c r="E160" s="16" t="s">
-        <v>177</v>
+        <v>156</v>
       </c>
       <c r="F160" s="16" t="s">
-        <v>320</v>
+        <v>329</v>
       </c>
       <c r="G160" s="16"/>
       <c r="H160" s="16" t="s">
         <v>217</v>
       </c>
       <c r="I160" s="16" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="J160" s="16" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="K160" s="24" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="L160" s="20"/>
     </row>
@@ -7709,31 +7711,33 @@
       <c r="A161" s="27">
         <v>155</v>
       </c>
-      <c r="B161" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="C161" s="15" t="s">
-        <v>280</v>
-      </c>
-      <c r="D161" s="34" t="s">
-        <v>303</v>
-      </c>
-      <c r="E161" s="15" t="s">
-        <v>354</v>
-      </c>
-      <c r="F161" s="15" t="s">
-        <v>336</v>
-      </c>
-      <c r="G161" s="15"/>
+      <c r="B161" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C161" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="D161" s="35" t="s">
+        <v>306</v>
+      </c>
+      <c r="E161" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="F161" s="16" t="s">
+        <v>319</v>
+      </c>
+      <c r="G161" s="16"/>
       <c r="H161" s="16" t="s">
-        <v>135</v>
+        <v>217</v>
       </c>
       <c r="I161" s="16" t="s">
-        <v>136</v>
-      </c>
-      <c r="J161" s="16"/>
+        <v>219</v>
+      </c>
+      <c r="J161" s="16" t="s">
+        <v>219</v>
+      </c>
       <c r="K161" s="24" t="s">
-        <v>138</v>
+        <v>219</v>
       </c>
       <c r="L161" s="19"/>
     </row>
@@ -7741,65 +7745,69 @@
       <c r="A162" s="27">
         <v>156</v>
       </c>
-      <c r="B162" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="C162" s="15" t="s">
-        <v>279</v>
-      </c>
-      <c r="D162" s="34" t="s">
-        <v>300</v>
-      </c>
-      <c r="E162" s="15" t="s">
-        <v>131</v>
-      </c>
-      <c r="F162" s="15" t="s">
+      <c r="B162" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C162" s="16" t="s">
+        <v>180</v>
+      </c>
+      <c r="D162" s="35">
+        <v>2010</v>
+      </c>
+      <c r="E162" s="39" t="s">
+        <v>179</v>
+      </c>
+      <c r="F162" s="39" t="s">
         <v>320</v>
       </c>
-      <c r="G162" s="15"/>
+      <c r="G162" s="16"/>
       <c r="H162" s="16" t="s">
         <v>135</v>
       </c>
       <c r="I162" s="16" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="J162" s="16" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="K162" s="24" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="L162" s="20" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="163" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A163" s="27">
         <v>157</v>
       </c>
-      <c r="B163" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="C163" s="15"/>
-      <c r="D163" s="34" t="s">
-        <v>304</v>
-      </c>
-      <c r="E163" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="F163" s="15" t="s">
-        <v>319</v>
-      </c>
-      <c r="G163" s="15"/>
+      <c r="B163" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C163" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="D163" s="35">
+        <v>2012</v>
+      </c>
+      <c r="E163" s="39" t="s">
+        <v>179</v>
+      </c>
+      <c r="F163" s="39" t="s">
+        <v>320</v>
+      </c>
+      <c r="G163" s="16"/>
       <c r="H163" s="16" t="s">
-        <v>217</v>
+        <v>135</v>
       </c>
       <c r="I163" s="16" t="s">
-        <v>218</v>
-      </c>
-      <c r="J163" s="16"/>
+        <v>219</v>
+      </c>
+      <c r="J163" s="16" t="s">
+        <v>219</v>
+      </c>
       <c r="K163" s="24" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="L163" s="19"/>
     </row>
@@ -7808,26 +7816,26 @@
         <v>158</v>
       </c>
       <c r="B164" s="18" t="s">
-        <v>118</v>
+        <v>9</v>
       </c>
       <c r="C164" s="16" t="s">
-        <v>277</v>
-      </c>
-      <c r="D164" s="35" t="s">
-        <v>304</v>
+        <v>185</v>
+      </c>
+      <c r="D164" s="35">
+        <v>2019</v>
       </c>
       <c r="E164" s="16" t="s">
-        <v>151</v>
+        <v>186</v>
       </c>
       <c r="F164" s="16" t="s">
-        <v>318</v>
+        <v>327</v>
       </c>
       <c r="G164" s="16"/>
       <c r="H164" s="16" t="s">
-        <v>217</v>
+        <v>135</v>
       </c>
       <c r="I164" s="16" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J164" s="16" t="s">
         <v>219</v>
@@ -7836,7 +7844,7 @@
         <v>219</v>
       </c>
       <c r="L164" s="20" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="165" spans="1:12" x14ac:dyDescent="0.3">
@@ -7844,19 +7852,19 @@
         <v>159</v>
       </c>
       <c r="B165" s="18" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="C165" s="16" t="s">
-        <v>278</v>
-      </c>
-      <c r="D165" s="35" t="s">
-        <v>304</v>
+        <v>268</v>
+      </c>
+      <c r="D165" s="35">
+        <v>1996</v>
       </c>
       <c r="E165" s="16" t="s">
-        <v>154</v>
+        <v>210</v>
       </c>
       <c r="F165" s="16" t="s">
-        <v>335</v>
+        <v>320</v>
       </c>
       <c r="G165" s="16"/>
       <c r="H165" s="16" t="s">
@@ -7872,7 +7880,7 @@
         <v>219</v>
       </c>
       <c r="L165" s="19" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="166" spans="1:12" x14ac:dyDescent="0.3">
@@ -7880,32 +7888,32 @@
         <v>160</v>
       </c>
       <c r="B166" s="18" t="s">
-        <v>73</v>
+        <v>118</v>
       </c>
       <c r="C166" s="16" t="s">
-        <v>221</v>
-      </c>
-      <c r="D166" s="35">
-        <v>2005</v>
+        <v>276</v>
+      </c>
+      <c r="D166" s="35" t="s">
+        <v>303</v>
       </c>
       <c r="E166" s="16" t="s">
-        <v>255</v>
+        <v>151</v>
       </c>
       <c r="F166" s="16" t="s">
-        <v>336</v>
+        <v>317</v>
       </c>
       <c r="G166" s="16"/>
       <c r="H166" s="16" t="s">
-        <v>135</v>
+        <v>217</v>
       </c>
       <c r="I166" s="16" t="s">
-        <v>136</v>
+        <v>218</v>
       </c>
       <c r="J166" s="16" t="s">
-        <v>136</v>
+        <v>219</v>
       </c>
       <c r="K166" s="24" t="s">
-        <v>136</v>
+        <v>219</v>
       </c>
       <c r="L166" s="19"/>
     </row>
@@ -7913,33 +7921,33 @@
       <c r="A167" s="27">
         <v>161</v>
       </c>
-      <c r="B167" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="C167" s="15" t="s">
-        <v>271</v>
-      </c>
-      <c r="D167" s="34" t="s">
-        <v>301</v>
-      </c>
-      <c r="E167" s="15" t="s">
-        <v>167</v>
-      </c>
-      <c r="F167" s="15" t="s">
-        <v>334</v>
-      </c>
-      <c r="G167" s="15"/>
+      <c r="B167" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C167" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="D167" s="35">
+        <v>2006</v>
+      </c>
+      <c r="E167" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="F167" s="16" t="s">
+        <v>326</v>
+      </c>
+      <c r="G167" s="16"/>
       <c r="H167" s="16" t="s">
-        <v>135</v>
+        <v>217</v>
       </c>
       <c r="I167" s="16" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="J167" s="16" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="K167" s="24" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="L167" s="19"/>
     </row>
@@ -7948,32 +7956,32 @@
         <v>162</v>
       </c>
       <c r="B168" s="17" t="s">
-        <v>73</v>
+        <v>118</v>
       </c>
       <c r="C168" s="40" t="s">
-        <v>272</v>
-      </c>
-      <c r="D168" s="34" t="s">
-        <v>301</v>
+        <v>119</v>
+      </c>
+      <c r="D168" s="34">
+        <v>2005</v>
       </c>
       <c r="E168" s="17" t="s">
-        <v>167</v>
+        <v>117</v>
       </c>
       <c r="F168" s="15" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="G168" s="15"/>
       <c r="H168" s="16" t="s">
-        <v>135</v>
+        <v>217</v>
       </c>
       <c r="I168" s="16" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="J168" s="16" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="K168" s="24" t="s">
-        <v>216</v>
+        <v>138</v>
       </c>
       <c r="L168" s="19"/>
     </row>
@@ -7982,40 +7990,38 @@
         <v>163</v>
       </c>
       <c r="B169" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="C169" s="15" t="s">
-        <v>314</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="C169" s="15"/>
       <c r="D169" s="34" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="E169" s="15" t="s">
-        <v>167</v>
+        <v>64</v>
       </c>
       <c r="F169" s="15" t="s">
-        <v>334</v>
+        <v>318</v>
       </c>
       <c r="G169" s="15"/>
       <c r="H169" s="16" t="s">
-        <v>315</v>
+        <v>217</v>
       </c>
       <c r="I169" s="16" t="s">
-        <v>216</v>
+        <v>136</v>
       </c>
       <c r="J169" s="16" t="s">
-        <v>216</v>
+        <v>136</v>
       </c>
       <c r="K169" s="24" t="s">
-        <v>216</v>
+        <v>136</v>
       </c>
       <c r="L169" s="11" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="170" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B170" s="25" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C170" s="25"/>
       <c r="D170" s="25"/>
